--- a/output/Lagserien 2022 menn 3. div.xlsx
+++ b/output/Lagserien 2022 menn 3. div.xlsx
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>12565</v>
+        <v>12569</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -803,16 +803,16 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Fana IL 2. lag</t>
+          <t>Snøgg Friidrett</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(19/12)</t>
+          <t>(20/8)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>11624</v>
+        <v>11538</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -831,16 +831,16 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Snøgg Friidrett</t>
+          <t>Fana IL 2. lag</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(20/8)</t>
+          <t>(19/11)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>11538</v>
+        <v>11473</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -887,16 +887,16 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Fredrikstad IF</t>
+          <t>IL Gneist 2. lag</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(18/8)</t>
+          <t>(19/9)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>11354</v>
+        <v>11358</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -915,16 +915,16 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>IL Gneist 2. lag</t>
+          <t>Fredrikstad IF</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(19/9)</t>
+          <t>(18/8)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>11288</v>
+        <v>11354</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>11162</v>
+        <v>11172</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -1111,25 +1111,25 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Sandnes IL 2. lag</t>
+          <t>Larvik Turn &amp; IF</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>(20/9)</t>
+          <t>(20/8)</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>10614</v>
+        <v>10732</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>(13/2d)</t>
+          <t>(-)</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -1139,25 +1139,25 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Stadsbygd IL</t>
+          <t>Sandnes IL 2. lag</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>(19/7)</t>
+          <t>(20/9)</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>10568</v>
+        <v>10614</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>(-)</t>
+          <t>(13/2d)</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Larvik Turn &amp; IF</t>
+          <t>Stadsbygd IL</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>10405</v>
+        <v>10581</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>8912</v>
+        <v>8925</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>8847</v>
+        <v>8848</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>8430</v>
+        <v>8434</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
@@ -1727,16 +1727,16 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Ringerike Friidrettsklubb</t>
+          <t>Varegg IL</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(14/8)</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8206</v>
+        <v>8243</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1755,16 +1755,16 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Varegg IL</t>
+          <t>Ringerike Friidrettsklubb</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>(14/8)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8202</v>
+        <v>8206</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -1839,16 +1839,16 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL 3. lag</t>
+          <t>Mjøsdalen IL</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>(12/7)</t>
+          <t>(20/12)</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>7954</v>
+        <v>7955</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1867,16 +1867,16 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Mjøsdalen IL</t>
+          <t>IL i BUL 3. lag</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>(20/12)</t>
+          <t>(12/7)</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>7929</v>
+        <v>7954</v>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>7236</v>
+        <v>7289</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>7069</v>
+        <v>7121</v>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
@@ -2343,16 +2343,16 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>IL Molde-Olymp</t>
+          <t>Raufoss Idrettslag Friidrett</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>(16/8)</t>
+          <t>(11/6)</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>6922</v>
+        <v>6925</v>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2371,16 +2371,16 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Raufoss Idrettslag Friidrett</t>
+          <t>IL Molde-Olymp</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>(11/6)</t>
+          <t>(16/8)</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>6896</v>
+        <v>6922</v>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>6858</v>
+        <v>6906</v>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
@@ -2567,16 +2567,16 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Jølster IL</t>
+          <t>FIL Aks-77</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>(12/6)</t>
+          <t>(18/8)</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>6651</v>
+        <v>6660</v>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2595,16 +2595,16 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>FIL Aks-77</t>
+          <t>Jølster IL</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>(18/7)</t>
+          <t>(12/6)</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>6584</v>
+        <v>6651</v>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
     </row>
@@ -2763,16 +2763,16 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Fyllingen IL 2. lag</t>
+          <t>Ask Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>(17/5)</t>
+          <t>(18/10)</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>6364</v>
+        <v>6371</v>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
@@ -2791,16 +2791,16 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Egersunds IK</t>
+          <t>Fyllingen IL 2. lag</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>(18/12)</t>
+          <t>(17/5)</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>6354</v>
+        <v>6364</v>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2819,16 +2819,16 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Skarphedin IL</t>
+          <t>Egersunds IK</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>(11/6)</t>
+          <t>(18/12)</t>
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>6307</v>
+        <v>6354</v>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -2847,16 +2847,16 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Hvam IL</t>
+          <t>Skarphedin IL</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>(16/4)</t>
+          <t>(11/6)</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>6300</v>
+        <v>6307</v>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -2875,16 +2875,16 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Ålesund Friidrettsklubb</t>
+          <t>Hvam IL</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>(16/8)</t>
+          <t>(16/4)</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>6259</v>
+        <v>6300</v>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2903,16 +2903,16 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Fana IL 3. lag</t>
+          <t>Ålesund Friidrettsklubb</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>(18/10)</t>
+          <t>(16/8)</t>
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>6206</v>
+        <v>6259</v>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -2931,16 +2931,16 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Herkules Friidrett</t>
+          <t>Fana IL 3. lag</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>(12/7)</t>
+          <t>(18/10)</t>
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>6186</v>
+        <v>6206</v>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2959,16 +2959,16 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Ask Friidrett 2. lag</t>
+          <t>Sportsklubben Vidar 4. lag</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>(18/10)</t>
+          <t>(12/11)</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>6153</v>
+        <v>6193</v>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2987,16 +2987,16 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Lambertseter IF</t>
+          <t>Herkules Friidrett</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(12/7)</t>
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>6147</v>
+        <v>6186</v>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -3015,16 +3015,16 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>IL Runar</t>
+          <t>Lambertseter IF</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>(12/8)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>6088</v>
+        <v>6147</v>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -3043,16 +3043,16 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Aremark IF</t>
+          <t>IL Runar</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>(11/4)</t>
+          <t>(12/8)</t>
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>6069</v>
+        <v>6088</v>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -3071,16 +3071,16 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Halden IL</t>
+          <t>Aremark IF</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>(11/6)</t>
+          <t>(11/4)</t>
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>5999</v>
+        <v>6069</v>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
@@ -3099,16 +3099,16 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>IL Tyrving 3. lag</t>
+          <t>Halden IL</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>(12/7)</t>
+          <t>(11/6)</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>5968</v>
+        <v>5999</v>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -3127,16 +3127,16 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Sandnes IL 3. lag</t>
+          <t>IL Tyrving 3. lag</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>(14/10)</t>
+          <t>(12/7)</t>
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>5942</v>
+        <v>5968</v>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -3155,16 +3155,16 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Sandefjord Turn &amp; IF</t>
+          <t>Sandnes IL 3. lag</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>(15/8)</t>
+          <t>(14/10)</t>
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>5930</v>
+        <v>5942</v>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -3183,16 +3183,16 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Osterøy IL 2. lag</t>
+          <t>Sandefjord Turn &amp; IF</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>(18/11)</t>
+          <t>(15/8)</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>5872</v>
+        <v>5930</v>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -3211,16 +3211,16 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Sem IF</t>
+          <t>Osterøy IL 2. lag</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>(10/6)</t>
+          <t>(18/11)</t>
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>5759</v>
+        <v>5872</v>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -3239,16 +3239,16 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Salangen Friidrett</t>
+          <t>Sem IF</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>(10/5)</t>
+          <t>(10/6)</t>
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>5735</v>
+        <v>5760</v>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -3267,16 +3267,16 @@
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Kongsberg IF</t>
+          <t>Salangen Friidrett</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>(12/7)</t>
+          <t>(10/5)</t>
         </is>
       </c>
       <c r="D98" s="3" t="n">
-        <v>5717</v>
+        <v>5735</v>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -3295,12 +3295,12 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Bratsberg IL</t>
+          <t>Kongsberg IF</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>(8/4)</t>
+          <t>(12/7)</t>
         </is>
       </c>
       <c r="D99" s="3" t="n">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -3323,16 +3323,16 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Sportsklubben Vidar 4. lag</t>
+          <t>Bratsberg IL</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>(11/9)</t>
+          <t>(8/4)</t>
         </is>
       </c>
       <c r="D100" s="3" t="n">
-        <v>5501</v>
+        <v>5717</v>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="D101" s="3" t="n">
-        <v>5443</v>
+        <v>5456</v>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="D102" s="3" t="n">
-        <v>5405</v>
+        <v>5409</v>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
@@ -8001,32 +8001,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Snorre Sliper Bonesmo</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
         <v>2001</v>
       </c>
-      <c r="O29" s="17" t="inlineStr">
-        <is>
-          <t>1,57,34</t>
-        </is>
+      <c r="O29" s="15" t="n">
+        <v>11.41</v>
       </c>
       <c r="P29" s="7" t="n">
         <v>741</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>25.06</v>
+        <v>9.07</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -8061,30 +8059,32 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Snorre Sliper Bonesmo</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
         <v>2001</v>
       </c>
-      <c r="O30" s="15" t="n">
-        <v>11.41</v>
+      <c r="O30" s="17" t="inlineStr">
+        <is>
+          <t>1,57,34</t>
+        </is>
       </c>
       <c r="P30" s="7" t="n">
         <v>741</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>9.07</v>
+        <v>25.06</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -9395,21 +9395,19 @@
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Adrian Stene Olsen</t>
+          <t>Ariand Shegani</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="O70" s="17" t="inlineStr">
-        <is>
-          <t>4,11,69</t>
-        </is>
+      <c r="O70" s="15" t="n">
+        <v>11.78</v>
       </c>
       <c r="P70" s="7" t="n">
         <v>657</v>
@@ -9420,7 +9418,7 @@
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>24.05</v>
+        <v>30.06</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -9457,19 +9455,21 @@
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Adrian Stene Olsen</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="O71" s="15" t="n">
-        <v>11.78</v>
+      <c r="O71" s="17" t="inlineStr">
+        <is>
+          <t>4,11,69</t>
+        </is>
       </c>
       <c r="P71" s="7" t="n">
         <v>657</v>
@@ -9480,7 +9480,7 @@
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>30.06</v>
+        <v>24.05</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
@@ -9547,24 +9547,24 @@
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Kidane Tsegay Breketab</t>
+          <t>Bjorn Sether Wastvedt</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="E73" s="17" t="inlineStr">
         <is>
-          <t>32,41,00</t>
+          <t>15,27,42</t>
         </is>
       </c>
       <c r="F73" s="7" t="n">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>2.06</v>
+        <v>23.07</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
@@ -9691,7 +9691,7 @@
         </is>
       </c>
       <c r="F78" s="21" t="n">
-        <v>3673</v>
+        <v>3686</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="20" t="inlineStr">
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>8912</v>
+        <v>8925</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="20" t="inlineStr">
@@ -10344,19 +10344,19 @@
       </c>
       <c r="C99" s="7" t="inlineStr">
         <is>
-          <t>Harald Solhaug Næss</t>
+          <t>Kidane Tsegay Breketab</t>
         </is>
       </c>
       <c r="D99" s="7" t="n">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="E99" s="17" t="inlineStr">
         <is>
-          <t>33,37,13</t>
+          <t>32,41,00</t>
         </is>
       </c>
       <c r="F99" s="7" t="n">
-        <v>647</v>
+        <v>699</v>
       </c>
       <c r="G99" s="7" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         </is>
       </c>
       <c r="F106" s="21" t="n">
-        <v>3736</v>
+        <v>3788</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="20" t="inlineStr">
@@ -11149,7 +11149,7 @@
         </is>
       </c>
       <c r="F122" s="21" t="n">
-        <v>7069</v>
+        <v>7121</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="20" t="inlineStr">
@@ -12684,7 +12684,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -12698,7 +12698,7 @@
         </is>
       </c>
       <c r="P170" s="8" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Lambertseter IF</t>
+          <t>Sportsklubben Vidar 4. lag</t>
         </is>
       </c>
       <c r="J171" s="5" t="n"/>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Sportsklubben Vidar 4. lag</t>
+          <t>Lambertseter IF</t>
         </is>
       </c>
       <c r="T171" s="5" t="n"/>
@@ -12850,25 +12850,25 @@
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Noah Ruben</t>
+          <t>Adrian Avelito Pena Lefkir</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>7.96</v>
+        <v>9.93</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>507</v>
+        <v>29</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>12.02</v>
+        <v>25.05</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -12878,444 +12878,466 @@
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Adrian Avelito Pena Lefkir</t>
+          <t>Noah Ruben</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>9.93</v>
+        <v>7.96</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>29</v>
+        <v>507</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>25.05</v>
+        <v>12.02</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Noah Ruben</t>
+          <t>Jens Endre Tobias Kveen</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>12.74</v>
+        <v>34.02</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>467</v>
+        <v>17</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>12.06</v>
+        <v>6.06</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Jens Endre Tobias Kveen</t>
+          <t>Noah Ruben</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>34.02</v>
+        <v>12.74</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>17</v>
+        <v>467</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>6.06</v>
+        <v>12.06</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Jens Kristian Aas</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E179" s="15" t="n">
-        <v>23.74</v>
+        <v>2005</v>
+      </c>
+      <c r="E179" s="17" t="inlineStr">
+        <is>
+          <t>2,09,40</t>
+        </is>
       </c>
       <c r="F179" s="7" t="n">
-        <v>673</v>
+        <v>532</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>29.01</v>
+        <v>30.06</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Jens Kristian Aas</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O179" s="17" t="inlineStr">
-        <is>
-          <t>2,09,40</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O179" s="15" t="n">
+        <v>23.74</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>532</v>
+        <v>673</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>30.06</v>
+        <v>29.01</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Erlend Murud Ege</t>
+          <t>Kristen Vamsæter</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E180" s="17" t="inlineStr">
         <is>
-          <t>1,02,20</t>
+          <t>4,23,00</t>
         </is>
       </c>
       <c r="F180" s="7" t="n">
-        <v>352</v>
+        <v>573</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>14.05</v>
+        <v>2.06</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Kristen Vamsæter</t>
+          <t>Erlend Murud Ege</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="O180" s="17" t="inlineStr">
         <is>
-          <t>4,23,00</t>
+          <t>1,02,20</t>
         </is>
       </c>
       <c r="P180" s="7" t="n">
-        <v>573</v>
+        <v>352</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>2.06</v>
+        <v>14.05</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
     <row r="181" ht="13" customHeight="1">
       <c r="B181" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
         <is>
-          <t>Sumithiran Mahendran</t>
+          <t>Jens Nikolai Kortner</t>
         </is>
       </c>
       <c r="D181" s="7" t="n">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="E181" s="17" t="inlineStr">
         <is>
-          <t>2,30,88</t>
+          <t>9,16,16</t>
         </is>
       </c>
       <c r="F181" s="7" t="n">
-        <v>287</v>
+        <v>629</v>
       </c>
       <c r="G181" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H181" s="16" t="n">
-        <v>12.02</v>
+        <v>10.06</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M181" s="7" t="inlineStr">
         <is>
-          <t>Jens Nikolai Kortner</t>
+          <t>Sumithiran Mahendran</t>
         </is>
       </c>
       <c r="N181" s="7" t="n">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="O181" s="17" t="inlineStr">
         <is>
-          <t>9,16,16</t>
+          <t>2,30,88</t>
         </is>
       </c>
       <c r="P181" s="7" t="n">
-        <v>629</v>
+        <v>287</v>
       </c>
       <c r="Q181" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R181" s="16" t="n">
-        <v>10.06</v>
+        <v>12.02</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
     <row r="182" ht="13" customHeight="1">
       <c r="B182" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
         <is>
-          <t>Sverre Hansen Munkvold</t>
+          <t>Eirik Dyrset</t>
         </is>
       </c>
       <c r="D182" s="7" t="n">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="E182" s="17" t="inlineStr">
         <is>
-          <t>4,58,18</t>
+          <t>15,58,34</t>
         </is>
       </c>
       <c r="F182" s="7" t="n">
-        <v>361</v>
+        <v>648</v>
       </c>
       <c r="G182" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H182" s="16" t="n">
-        <v>18.06</v>
+        <v>30.06</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M182" s="7" t="inlineStr">
         <is>
-          <t>Eirik Dyrset</t>
+          <t>Sverre Hansen Munkvold</t>
         </is>
       </c>
       <c r="N182" s="7" t="n">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="O182" s="17" t="inlineStr">
         <is>
-          <t>15,58,34</t>
+          <t>4,58,18</t>
         </is>
       </c>
       <c r="P182" s="7" t="n">
-        <v>648</v>
+        <v>361</v>
       </c>
       <c r="Q182" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R182" s="16" t="n">
-        <v>30.06</v>
+        <v>18.06</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
     <row r="183" ht="13" customHeight="1">
       <c r="B183" s="14" t="inlineStr">
         <is>
+          <t>10000m</t>
+        </is>
+      </c>
+      <c r="C183" s="7" t="inlineStr">
+        <is>
+          <t>Harald Solhaug Næss</t>
+        </is>
+      </c>
+      <c r="D183" s="7" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E183" s="17" t="inlineStr">
+        <is>
+          <t>33,37,13</t>
+        </is>
+      </c>
+      <c r="F183" s="7" t="n">
+        <v>647</v>
+      </c>
+      <c r="G183" s="7" t="inlineStr">
+        <is>
+          <t>Oslo/Bi</t>
+        </is>
+      </c>
+      <c r="H183" s="16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J183" s="5" t="n"/>
+      <c r="L183" s="14" t="inlineStr">
+        <is>
           <t>Høyde</t>
         </is>
       </c>
-      <c r="C183" s="7" t="inlineStr">
+      <c r="M183" s="7" t="inlineStr">
         <is>
           <t>Edvin Rooth</t>
         </is>
       </c>
-      <c r="D183" s="7" t="n">
+      <c r="N183" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E183" s="15" t="n">
+      <c r="O183" s="15" t="n">
         <v>1.46</v>
       </c>
-      <c r="F183" s="7" t="n">
+      <c r="P183" s="7" t="n">
         <v>306</v>
       </c>
-      <c r="G183" s="7" t="inlineStr">
+      <c r="Q183" s="7" t="inlineStr">
         <is>
           <t>Bærum</t>
         </is>
       </c>
-      <c r="H183" s="16" t="n">
+      <c r="R183" s="16" t="n">
         <v>22.01</v>
       </c>
-      <c r="J183" s="5" t="n"/>
-      <c r="L183" s="14" t="n"/>
-      <c r="M183" s="7" t="n"/>
-      <c r="N183" s="7" t="n"/>
-      <c r="O183" s="7" t="n"/>
-      <c r="P183" s="7" t="n"/>
-      <c r="Q183" s="7" t="n"/>
-      <c r="R183" s="18" t="n"/>
       <c r="T183" s="5" t="n"/>
     </row>
     <row r="184" ht="13" customHeight="1">
-      <c r="B184" s="14" t="inlineStr">
+      <c r="B184" s="14" t="n"/>
+      <c r="C184" s="7" t="n"/>
+      <c r="D184" s="7" t="n"/>
+      <c r="E184" s="7" t="n"/>
+      <c r="F184" s="7" t="n"/>
+      <c r="G184" s="7" t="n"/>
+      <c r="H184" s="18" t="n"/>
+      <c r="J184" s="5" t="n"/>
+      <c r="L184" s="14" t="inlineStr">
         <is>
           <t>Stav</t>
         </is>
       </c>
-      <c r="C184" s="7" t="inlineStr">
+      <c r="M184" s="7" t="inlineStr">
         <is>
           <t>Mats Klungland</t>
         </is>
       </c>
-      <c r="D184" s="7" t="n">
+      <c r="N184" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E184" s="15" t="n">
+      <c r="O184" s="15" t="n">
         <v>1.9</v>
       </c>
-      <c r="F184" s="7" t="n">
+      <c r="P184" s="7" t="n">
         <v>157</v>
       </c>
-      <c r="G184" s="7" t="inlineStr">
+      <c r="Q184" s="7" t="inlineStr">
         <is>
           <t>Bærum</t>
         </is>
       </c>
-      <c r="H184" s="16" t="n">
+      <c r="R184" s="16" t="n">
         <v>12.02</v>
       </c>
-      <c r="J184" s="5" t="n"/>
-      <c r="L184" s="14" t="n"/>
-      <c r="M184" s="7" t="n"/>
-      <c r="N184" s="7" t="n"/>
-      <c r="O184" s="7" t="n"/>
-      <c r="P184" s="7" t="n"/>
-      <c r="Q184" s="7" t="n"/>
-      <c r="R184" s="18" t="n"/>
       <c r="T184" s="5" t="n"/>
     </row>
     <row r="185" ht="13" customHeight="1">
-      <c r="B185" s="14" t="inlineStr">
+      <c r="B185" s="14" t="n"/>
+      <c r="C185" s="7" t="n"/>
+      <c r="D185" s="7" t="n"/>
+      <c r="E185" s="7" t="n"/>
+      <c r="F185" s="7" t="n"/>
+      <c r="G185" s="7" t="n"/>
+      <c r="H185" s="18" t="n"/>
+      <c r="J185" s="5" t="n"/>
+      <c r="L185" s="14" t="inlineStr">
         <is>
           <t>Lengde</t>
         </is>
       </c>
-      <c r="C185" s="7" t="inlineStr">
+      <c r="M185" s="7" t="inlineStr">
         <is>
           <t>Edvin Rooth</t>
         </is>
       </c>
-      <c r="D185" s="7" t="n">
+      <c r="N185" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E185" s="15" t="n">
+      <c r="O185" s="15" t="n">
         <v>4.74</v>
       </c>
-      <c r="F185" s="7" t="n">
+      <c r="P185" s="7" t="n">
         <v>308</v>
       </c>
-      <c r="G185" s="7" t="inlineStr">
+      <c r="Q185" s="7" t="inlineStr">
         <is>
           <t>Bærum</t>
         </is>
       </c>
-      <c r="H185" s="16" t="n">
+      <c r="R185" s="16" t="n">
         <v>22.01</v>
       </c>
-      <c r="J185" s="5" t="n"/>
-      <c r="L185" s="14" t="n"/>
-      <c r="M185" s="7" t="n"/>
-      <c r="N185" s="7" t="n"/>
-      <c r="O185" s="7" t="n"/>
-      <c r="P185" s="7" t="n"/>
-      <c r="Q185" s="7" t="n"/>
-      <c r="R185" s="18" t="n"/>
       <c r="T185" s="5" t="n"/>
     </row>
     <row r="186" ht="13" customHeight="1">
@@ -13397,7 +13419,7 @@
         </is>
       </c>
       <c r="C190" s="21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E190" s="20" t="inlineStr">
         <is>
@@ -13405,7 +13427,7 @@
         </is>
       </c>
       <c r="F190" s="21" t="n">
-        <v>3418</v>
+        <v>3075</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="20" t="inlineStr">
@@ -13414,7 +13436,7 @@
         </is>
       </c>
       <c r="M190" s="21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O190" s="20" t="inlineStr">
         <is>
@@ -13422,7 +13444,7 @@
         </is>
       </c>
       <c r="P190" s="21" t="n">
-        <v>2428</v>
+        <v>3418</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
@@ -13525,415 +13547,415 @@
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Edvin Rooth</t>
+          <t>Simon Tsuruta Pedersen</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E195" s="15" t="n">
-        <v>25.35</v>
+        <v>1992</v>
+      </c>
+      <c r="E195" s="17" t="inlineStr">
+        <is>
+          <t>15,58,88</t>
+        </is>
       </c>
       <c r="F195" s="7" t="n">
-        <v>527</v>
+        <v>647</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>11.06</v>
+        <v>30.06</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Simon Tsuruta Pedersen</t>
+          <t>Edvin Rooth</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O195" s="17" t="inlineStr">
-        <is>
-          <t>15,58,88</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O195" s="15" t="n">
+        <v>25.35</v>
       </c>
       <c r="P195" s="7" t="n">
-        <v>647</v>
+        <v>527</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>30.06</v>
+        <v>11.06</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Noah Ruben</t>
+          <t>Tom Kuyken</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E196" s="15" t="n">
-        <v>26.12</v>
+        <v>1988</v>
+      </c>
+      <c r="E196" s="17" t="inlineStr">
+        <is>
+          <t>16,02,63</t>
+        </is>
       </c>
       <c r="F196" s="7" t="n">
-        <v>466</v>
+        <v>640</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>13.02</v>
+        <v>23.07</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M196" s="7" t="inlineStr">
         <is>
-          <t>Axel Wollan</t>
+          <t>Noah Ruben</t>
         </is>
       </c>
       <c r="N196" s="7" t="n">
-        <v>1993</v>
-      </c>
-      <c r="O196" s="17" t="inlineStr">
-        <is>
-          <t>9,20,58</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O196" s="15" t="n">
+        <v>26.12</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>614</v>
+        <v>466</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>28.05</v>
+        <v>13.02</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Edvin Rooth</t>
+          <t>Axel Wollan</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E197" s="15" t="n">
-        <v>8.16</v>
+        <v>1993</v>
+      </c>
+      <c r="E197" s="17" t="inlineStr">
+        <is>
+          <t>9,20,58</t>
+        </is>
       </c>
       <c r="F197" s="7" t="n">
-        <v>447</v>
+        <v>614</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>22.01</v>
+        <v>28.05</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Eirik Dyrset</t>
+          <t>Edvin Rooth</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>1990</v>
-      </c>
-      <c r="O197" s="17" t="inlineStr">
-        <is>
-          <t>9,21,89</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O197" s="15" t="n">
+        <v>8.16</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>609</v>
+        <v>447</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>28.05</v>
+        <v>22.01</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Sverre Hansen Munkvold</t>
+          <t>Eirik Dyrset</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E198" s="15" t="n">
-        <v>26.5</v>
+        <v>1990</v>
+      </c>
+      <c r="E198" s="17" t="inlineStr">
+        <is>
+          <t>9,21,89</t>
+        </is>
       </c>
       <c r="F198" s="7" t="n">
-        <v>438</v>
+        <v>609</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>19.06</v>
+        <v>28.05</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Morten Dalhaug</t>
+          <t>Sverre Hansen Munkvold</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O198" s="17" t="inlineStr">
-        <is>
-          <t>16,19,34</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O198" s="15" t="n">
+        <v>26.5</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>608</v>
+        <v>438</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>13.07</v>
+        <v>19.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Sverre Hansen Munkvold</t>
+          <t>Morten Dalhaug</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E199" s="15" t="n">
-        <v>8.31</v>
+        <v>1992</v>
+      </c>
+      <c r="E199" s="17" t="inlineStr">
+        <is>
+          <t>16,19,34</t>
+        </is>
       </c>
       <c r="F199" s="7" t="n">
-        <v>404</v>
+        <v>608</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>12.02</v>
+        <v>13.07</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Kristen Vamsæter</t>
+          <t>Sverre Hansen Munkvold</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O199" s="17" t="inlineStr">
-        <is>
-          <t>9,26,16</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O199" s="15" t="n">
+        <v>8.31</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>595</v>
+        <v>404</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>10.06</v>
+        <v>12.02</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
     <row r="200" ht="13" customHeight="1">
-      <c r="B200" s="14" t="inlineStr">
+      <c r="B200" s="14" t="n"/>
+      <c r="C200" s="7" t="n"/>
+      <c r="D200" s="7" t="n"/>
+      <c r="E200" s="7" t="n"/>
+      <c r="F200" s="7" t="n"/>
+      <c r="G200" s="7" t="n"/>
+      <c r="H200" s="18" t="n"/>
+      <c r="J200" s="5" t="n"/>
+      <c r="L200" s="14" t="inlineStr">
         <is>
           <t>Lengde</t>
         </is>
       </c>
-      <c r="C200" s="7" t="inlineStr">
+      <c r="M200" s="7" t="inlineStr">
         <is>
           <t>Erlend Murud Ege</t>
         </is>
       </c>
-      <c r="D200" s="7" t="n">
+      <c r="N200" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E200" s="15" t="n">
+      <c r="O200" s="15" t="n">
         <v>4.44</v>
       </c>
-      <c r="F200" s="7" t="n">
+      <c r="P200" s="7" t="n">
         <v>232</v>
       </c>
-      <c r="G200" s="7" t="inlineStr">
+      <c r="Q200" s="7" t="inlineStr">
         <is>
           <t>Stange</t>
         </is>
       </c>
-      <c r="H200" s="16" t="n">
+      <c r="R200" s="16" t="n">
         <v>12.03</v>
       </c>
-      <c r="J200" s="5" t="n"/>
-      <c r="L200" s="14" t="n"/>
-      <c r="M200" s="7" t="n"/>
-      <c r="N200" s="7" t="n"/>
-      <c r="O200" s="7" t="n"/>
-      <c r="P200" s="7" t="n"/>
-      <c r="Q200" s="7" t="n"/>
-      <c r="R200" s="18" t="n"/>
       <c r="T200" s="5" t="n"/>
     </row>
     <row r="201" ht="13" customHeight="1">
-      <c r="B201" s="14" t="inlineStr">
+      <c r="B201" s="14" t="n"/>
+      <c r="C201" s="7" t="n"/>
+      <c r="D201" s="7" t="n"/>
+      <c r="E201" s="7" t="n"/>
+      <c r="F201" s="7" t="n"/>
+      <c r="G201" s="7" t="n"/>
+      <c r="H201" s="18" t="n"/>
+      <c r="J201" s="5" t="n"/>
+      <c r="L201" s="14" t="inlineStr">
         <is>
           <t>Lengde</t>
         </is>
       </c>
-      <c r="C201" s="7" t="inlineStr">
+      <c r="M201" s="7" t="inlineStr">
         <is>
           <t>Mats Klungland</t>
         </is>
       </c>
-      <c r="D201" s="7" t="n">
+      <c r="N201" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E201" s="15" t="n">
+      <c r="O201" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F201" s="7" t="n">
+      <c r="P201" s="7" t="n">
         <v>119</v>
       </c>
-      <c r="G201" s="7" t="inlineStr">
+      <c r="Q201" s="7" t="inlineStr">
         <is>
           <t>Stange</t>
         </is>
       </c>
-      <c r="H201" s="16" t="n">
+      <c r="R201" s="16" t="n">
         <v>12.03</v>
       </c>
-      <c r="J201" s="5" t="n"/>
-      <c r="L201" s="14" t="n"/>
-      <c r="M201" s="7" t="n"/>
-      <c r="N201" s="7" t="n"/>
-      <c r="O201" s="7" t="n"/>
-      <c r="P201" s="7" t="n"/>
-      <c r="Q201" s="7" t="n"/>
-      <c r="R201" s="18" t="n"/>
       <c r="T201" s="5" t="n"/>
     </row>
     <row r="202" ht="13" customHeight="1">
-      <c r="B202" s="14" t="inlineStr">
+      <c r="B202" s="14" t="n"/>
+      <c r="C202" s="7" t="n"/>
+      <c r="D202" s="7" t="n"/>
+      <c r="E202" s="7" t="n"/>
+      <c r="F202" s="7" t="n"/>
+      <c r="G202" s="7" t="n"/>
+      <c r="H202" s="18" t="n"/>
+      <c r="J202" s="5" t="n"/>
+      <c r="L202" s="14" t="inlineStr">
         <is>
           <t>Høyde</t>
         </is>
       </c>
-      <c r="C202" s="7" t="inlineStr">
+      <c r="M202" s="7" t="inlineStr">
         <is>
           <t>Mats Klungland</t>
         </is>
       </c>
-      <c r="D202" s="7" t="n">
+      <c r="N202" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E202" s="15" t="n">
+      <c r="O202" s="15" t="n">
         <v>1.3</v>
       </c>
-      <c r="F202" s="7" t="n">
+      <c r="P202" s="7" t="n">
         <v>96</v>
       </c>
-      <c r="G202" s="7" t="inlineStr">
+      <c r="Q202" s="7" t="inlineStr">
         <is>
           <t>Stange</t>
         </is>
       </c>
-      <c r="H202" s="16" t="n">
+      <c r="R202" s="16" t="n">
         <v>13.03</v>
       </c>
-      <c r="J202" s="5" t="n"/>
-      <c r="L202" s="14" t="n"/>
-      <c r="M202" s="7" t="n"/>
-      <c r="N202" s="7" t="n"/>
-      <c r="O202" s="7" t="n"/>
-      <c r="P202" s="7" t="n"/>
-      <c r="Q202" s="7" t="n"/>
-      <c r="R202" s="18" t="n"/>
       <c r="T202" s="5" t="n"/>
     </row>
     <row r="203" ht="13" customHeight="1">
@@ -13961,7 +13983,7 @@
         </is>
       </c>
       <c r="C204" s="21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E204" s="20" t="inlineStr">
         <is>
@@ -13969,7 +13991,7 @@
         </is>
       </c>
       <c r="F204" s="21" t="n">
-        <v>2729</v>
+        <v>3118</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="20" t="inlineStr">
@@ -13978,7 +14000,7 @@
         </is>
       </c>
       <c r="M204" s="21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O204" s="20" t="inlineStr">
         <is>
@@ -13986,7 +14008,7 @@
         </is>
       </c>
       <c r="P204" s="21" t="n">
-        <v>3073</v>
+        <v>2729</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -14001,7 +14023,7 @@
         </is>
       </c>
       <c r="C206" s="21" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E206" s="20" t="inlineStr">
         <is>
@@ -14009,7 +14031,7 @@
         </is>
       </c>
       <c r="F206" s="21" t="n">
-        <v>6147</v>
+        <v>6193</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="20" t="inlineStr">
@@ -14018,7 +14040,7 @@
         </is>
       </c>
       <c r="M206" s="21" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O206" s="20" t="inlineStr">
         <is>
@@ -14026,7 +14048,7 @@
         </is>
       </c>
       <c r="P206" s="21" t="n">
-        <v>5501</v>
+        <v>6147</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -14041,7 +14063,7 @@
         </is>
       </c>
       <c r="C208" s="21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="20" t="inlineStr">
@@ -14050,7 +14072,7 @@
         </is>
       </c>
       <c r="M208" s="21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
@@ -14155,7 +14177,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="L2" s="6" t="inlineStr">
@@ -15429,27 +15451,27 @@
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Vetle Farbu-Solbakken</t>
+          <t>Sebastian van der Veen</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="O31" s="17" t="inlineStr">
         <is>
-          <t>1,59,34</t>
+          <t>1,59,26</t>
         </is>
       </c>
       <c r="P31" s="7" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>11.06</v>
+        <v>2.08</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -15637,7 +15659,7 @@
         </is>
       </c>
       <c r="P36" s="21" t="n">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -15677,7 +15699,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>8847</v>
+        <v>8848</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -16785,7 +16807,7 @@
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>15.02</v>
+        <v>24.02</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
@@ -17327,7 +17349,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -17341,7 +17363,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -21049,7 +21071,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -23157,7 +23179,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -23518,18 +23540,18 @@
         <v>2004</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>51.71</v>
+        <v>51.43</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>4.03</v>
+        <v>27.07</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -24043,7 +24065,7 @@
         </is>
       </c>
       <c r="P22" s="21" t="n">
-        <v>6515</v>
+        <v>6528</v>
       </c>
       <c r="T22" s="5" t="n"/>
     </row>
@@ -24711,7 +24733,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>10568</v>
+        <v>10581</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -27759,7 +27781,7 @@
         </is>
       </c>
       <c r="P128" s="8" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -29004,7 +29026,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="L2" s="6" t="inlineStr">
@@ -32082,7 +32104,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -32096,7 +32118,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -35065,7 +35087,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -36560,7 +36582,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="L2" s="6" t="inlineStr">
@@ -36574,7 +36596,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -37019,22 +37041,24 @@
     <row r="14" ht="13" customHeight="1">
       <c r="B14" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>Alfred Hauane</t>
+          <t>Vetle Titlestad Bye</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E14" s="15" t="n">
-        <v>55.52</v>
+        <v>2009</v>
+      </c>
+      <c r="E14" s="17" t="inlineStr">
+        <is>
+          <t>5,04,83</t>
+        </is>
       </c>
       <c r="F14" s="7" t="n">
-        <v>757</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
@@ -37042,7 +37066,7 @@
         </is>
       </c>
       <c r="H14" s="16" t="n">
-        <v>15.06</v>
+        <v>27.07</v>
       </c>
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
@@ -37079,30 +37103,30 @@
     <row r="15" ht="13" customHeight="1">
       <c r="B15" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Håkon Klausen Holth</t>
+          <t>Alfred Hauane</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E15" s="15" t="n">
-        <v>1.45</v>
+        <v>55.52</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>295</v>
+        <v>757</v>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="H15" s="16" t="n">
-        <v>29.05</v>
+        <v>15.06</v>
       </c>
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
@@ -37137,7 +37161,7 @@
     <row r="16" ht="13" customHeight="1">
       <c r="B16" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr">
@@ -37149,18 +37173,18 @@
         <v>2008</v>
       </c>
       <c r="E16" s="15" t="n">
-        <v>5.03</v>
+        <v>1.45</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H16" s="16" t="n">
-        <v>11.05</v>
+        <v>29.05</v>
       </c>
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="n"/>
@@ -37175,22 +37199,22 @@
     <row r="17" ht="13" customHeight="1">
       <c r="B17" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>Jostein Myrvang</t>
+          <t>Håkon Klausen Holth</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>1946</v>
+        <v>2008</v>
       </c>
       <c r="E17" s="15" t="n">
-        <v>1.07</v>
+        <v>5.03</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
@@ -37198,7 +37222,7 @@
         </is>
       </c>
       <c r="H17" s="16" t="n">
-        <v>25.01</v>
+        <v>11.05</v>
       </c>
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="n"/>
@@ -37357,7 +37381,7 @@
         </is>
       </c>
       <c r="F22" s="21" t="n">
-        <v>6373</v>
+        <v>6680</v>
       </c>
       <c r="J22" s="5" t="n"/>
       <c r="L22" s="20" t="inlineStr">
@@ -37851,13 +37875,33 @@
       <c r="T33" s="5" t="n"/>
     </row>
     <row r="34" ht="13" customHeight="1">
-      <c r="B34" s="14" t="n"/>
-      <c r="C34" s="7" t="n"/>
-      <c r="D34" s="7" t="n"/>
-      <c r="E34" s="7" t="n"/>
-      <c r="F34" s="7" t="n"/>
-      <c r="G34" s="7" t="n"/>
-      <c r="H34" s="18" t="n"/>
+      <c r="B34" s="14" t="inlineStr">
+        <is>
+          <t>Høyde u.t</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>Jostein Myrvang</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E34" s="15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G34" s="7" t="inlineStr">
+        <is>
+          <t>Larvik</t>
+        </is>
+      </c>
+      <c r="H34" s="16" t="n">
+        <v>25.01</v>
+      </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="n"/>
       <c r="M34" s="7" t="n"/>
@@ -37893,7 +37937,7 @@
         </is>
       </c>
       <c r="C36" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" s="20" t="inlineStr">
         <is>
@@ -37901,7 +37945,7 @@
         </is>
       </c>
       <c r="F36" s="21" t="n">
-        <v>4032</v>
+        <v>4052</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="20" t="inlineStr">
@@ -37933,7 +37977,7 @@
         </is>
       </c>
       <c r="C38" s="21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38" s="20" t="inlineStr">
         <is>
@@ -37941,7 +37985,7 @@
         </is>
       </c>
       <c r="F38" s="21" t="n">
-        <v>10405</v>
+        <v>10732</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="20" t="inlineStr">
@@ -37973,7 +38017,7 @@
         </is>
       </c>
       <c r="C40" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="20" t="inlineStr">
@@ -38028,7 +38072,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -38042,7 +38086,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -39062,19 +39106,19 @@
       </c>
       <c r="O72" s="17" t="inlineStr">
         <is>
-          <t>4,15,34</t>
+          <t>4,15,23</t>
         </is>
       </c>
       <c r="P72" s="7" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>18.06</v>
+        <v>23.07</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
@@ -39262,7 +39306,7 @@
         </is>
       </c>
       <c r="P78" s="21" t="n">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -39302,7 +39346,7 @@
         </is>
       </c>
       <c r="P80" s="21" t="n">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -39425,7 +39469,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="L2" s="6" t="inlineStr">
@@ -41031,7 +41075,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -41045,7 +41089,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -47331,18 +47375,18 @@
         <v>2004</v>
       </c>
       <c r="E27" s="15" t="n">
-        <v>44.84</v>
+        <v>45.08</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G27" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/NIH</t>
         </is>
       </c>
       <c r="H27" s="16" t="n">
-        <v>24.06</v>
+        <v>3.08</v>
       </c>
       <c r="J27" s="5" t="n"/>
       <c r="L27" s="14" t="inlineStr">
@@ -47727,7 +47771,7 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
@@ -47739,18 +47783,18 @@
         <v>2004</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>7.56</v>
+        <v>53.13</v>
       </c>
       <c r="F34" s="7" t="n">
         <v>639</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>12.02</v>
+        <v>12.06</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -47815,7 +47859,7 @@
         </is>
       </c>
       <c r="F36" s="21" t="n">
-        <v>5397</v>
+        <v>5401</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="20" t="inlineStr">
@@ -47855,7 +47899,7 @@
         </is>
       </c>
       <c r="F38" s="21" t="n">
-        <v>12565</v>
+        <v>12569</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="20" t="inlineStr">
@@ -48554,11 +48598,11 @@
       </c>
       <c r="M58" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Selbekk</t>
+          <t>Thomas Næss</t>
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="O58" s="15" t="n">
         <v>1.45</v>
@@ -48572,7 +48616,7 @@
         </is>
       </c>
       <c r="R58" s="16" t="n">
-        <v>10.06</v>
+        <v>12.06</v>
       </c>
       <c r="T58" s="5" t="n"/>
     </row>
@@ -49204,11 +49248,11 @@
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Thomas Næss</t>
+          <t>Sebastian Selbekk</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="O74" s="15" t="n">
         <v>1.45</v>
@@ -49222,7 +49266,7 @@
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>12.06</v>
+        <v>10.06</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -49334,11 +49378,11 @@
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>12.06</v>
+        <v>5.06</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
@@ -51388,27 +51432,27 @@
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Robin Emil Krister Kronqvist</t>
+          <t>Merih Solomon</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="E139" s="17" t="inlineStr">
         <is>
-          <t>3,58,84</t>
+          <t>3,58,54</t>
         </is>
       </c>
       <c r="F139" s="7" t="n">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>2.06</v>
+        <v>23.07</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
@@ -51641,7 +51685,7 @@
         </is>
       </c>
       <c r="F148" s="21" t="n">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="20" t="inlineStr">
@@ -51761,32 +51805,32 @@
     <row r="153" ht="13" customHeight="1">
       <c r="B153" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Merih Solomon</t>
+          <t>Robin Emil Krister Kronqvist</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="E153" s="17" t="inlineStr">
         <is>
-          <t>1,56,30</t>
+          <t>3,58,84</t>
         </is>
       </c>
       <c r="F153" s="7" t="n">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Brandbu</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>22.06</v>
+        <v>2.06</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -51881,12 +51925,12 @@
     <row r="155" ht="13" customHeight="1">
       <c r="B155" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>Merih Solomon Hailemicheal</t>
+          <t>Merih Solomon</t>
         </is>
       </c>
       <c r="D155" s="7" t="n">
@@ -51894,19 +51938,19 @@
       </c>
       <c r="E155" s="17" t="inlineStr">
         <is>
-          <t>3,59,94</t>
+          <t>1,56,30</t>
         </is>
       </c>
       <c r="F155" s="7" t="n">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G155" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="H155" s="16" t="n">
-        <v>13.07</v>
+        <v>22.06</v>
       </c>
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
@@ -51946,19 +51990,19 @@
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>Abdirahim Abdullahi Dahir</t>
+          <t>Merih Solomon Hailemicheal</t>
         </is>
       </c>
       <c r="D156" s="7" t="n">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="E156" s="17" t="inlineStr">
         <is>
-          <t>4,03,00</t>
+          <t>3,59,94</t>
         </is>
       </c>
       <c r="F156" s="7" t="n">
-        <v>732</v>
+        <v>761</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
@@ -51966,7 +52010,7 @@
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>24.05</v>
+        <v>13.07</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
@@ -52006,27 +52050,27 @@
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>Merih Solomon</t>
+          <t>Abdirahim Abdullahi Dahir</t>
         </is>
       </c>
       <c r="D157" s="7" t="n">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="E157" s="17" t="inlineStr">
         <is>
-          <t>4,04,17</t>
+          <t>4,03,00</t>
         </is>
       </c>
       <c r="F157" s="7" t="n">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>2.06</v>
+        <v>24.05</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
@@ -52205,7 +52249,7 @@
         </is>
       </c>
       <c r="F162" s="21" t="n">
-        <v>3743</v>
+        <v>3793</v>
       </c>
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="20" t="inlineStr">
@@ -52245,7 +52289,7 @@
         </is>
       </c>
       <c r="F164" s="21" t="n">
-        <v>7236</v>
+        <v>7289</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="20" t="inlineStr">
@@ -52570,11 +52614,11 @@
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>25.05</v>
+        <v>12.06</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -53335,20 +53379,20 @@
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Andreas Lindebø Kværner</t>
+          <t>Odin Fjøsne-Hexeberg</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O198" s="17" t="inlineStr">
         <is>
-          <t>2,00,65</t>
+          <t>9,03,42</t>
         </is>
       </c>
       <c r="P198" s="7" t="n">
@@ -53360,7 +53404,7 @@
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>11.06</v>
+        <v>10.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -53395,20 +53439,20 @@
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Odin Fjøsne-Hexeberg</t>
+          <t>Andreas Lindebø Kværner</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O199" s="17" t="inlineStr">
         <is>
-          <t>9,03,42</t>
+          <t>2,00,65</t>
         </is>
       </c>
       <c r="P199" s="7" t="n">
@@ -53420,7 +53464,7 @@
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>10.06</v>
+        <v>11.06</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -53470,11 +53514,11 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Mathèo Müller Schackt</t>
+          <t>Sigurd Letnes</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E201" s="15" t="n">
         <v>1.4</v>
@@ -53484,11 +53528,11 @@
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Heggedal</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>4.06</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="n"/>
@@ -53508,11 +53552,11 @@
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Letnes</t>
+          <t>Mathèo Müller Schackt</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E202" s="15" t="n">
         <v>1.4</v>
@@ -53522,11 +53566,11 @@
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Heggedal</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>8.050000000000001</v>
+        <v>4.06</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="n"/>
@@ -53698,7 +53742,7 @@
         </is>
       </c>
       <c r="F212" s="8" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J212" s="5" t="n"/>
       <c r="L212" s="6" t="inlineStr">
@@ -53712,7 +53756,7 @@
         </is>
       </c>
       <c r="P212" s="8" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T212" s="5" t="n"/>
     </row>
@@ -55806,7 +55850,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -57308,7 +57352,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -58733,7 +58777,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -59287,11 +59331,11 @@
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -59389,25 +59433,25 @@
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Odin August Østreim Øina</t>
+          <t>Benjamin Moen</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>6.03</v>
+        <v>19.06</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -59595,7 +59639,7 @@
         </is>
       </c>
       <c r="P22" s="21" t="n">
-        <v>6716</v>
+        <v>6718</v>
       </c>
       <c r="T22" s="5" t="n"/>
     </row>
@@ -59745,11 +59789,11 @@
       </c>
       <c r="Q27" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R27" s="16" t="n">
-        <v>20.02</v>
+        <v>14.05</v>
       </c>
       <c r="T27" s="5" t="n"/>
     </row>
@@ -59784,22 +59828,22 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Odin August Østreim Øina</t>
+          <t>Johannes Handeland</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>3.7</v>
+        <v>1.75</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>658</v>
+        <v>607</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
@@ -59807,7 +59851,7 @@
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>14.05</v>
+        <v>8.06</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -59842,30 +59886,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Odin August Østreim Øina</t>
+          <t>Kjell Kubon</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>12.61</v>
+        <v>5.95</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>13.01</v>
+        <v>6.03</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -59900,22 +59944,22 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Johannes Handeland</t>
+          <t>Benjamin Moen</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>1.75</v>
+        <v>7.71</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
@@ -59923,7 +59967,7 @@
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>8.06</v>
+        <v>13.05</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -59958,7 +60002,7 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
@@ -59970,18 +60014,18 @@
         <v>2006</v>
       </c>
       <c r="O31" s="15" t="n">
-        <v>5.95</v>
+        <v>7.73</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>6.03</v>
+        <v>12.02</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -60021,17 +60065,17 @@
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Moen</t>
+          <t>Radoslav Krasimirov Minchev</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>7.71</v>
+        <v>7.75</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
@@ -60039,7 +60083,7 @@
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>13.05</v>
+        <v>28.05</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -60074,30 +60118,30 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Kjell Kubon</t>
+          <t>Mathias Myrmel Herdlevær</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>7.73</v>
+        <v>5.83</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>12.02</v>
+        <v>29.01</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -60132,30 +60176,30 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Radoslav Krasimirov Minchev</t>
+          <t>Benjamin Moen</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>7.75</v>
+        <v>12.05</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>28.05</v>
+        <v>18.06</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -60209,7 +60253,7 @@
         </is>
       </c>
       <c r="P36" s="21" t="n">
-        <v>4908</v>
+        <v>4755</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -60249,7 +60293,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>11624</v>
+        <v>11473</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -60273,7 +60317,7 @@
         </is>
       </c>
       <c r="M40" s="21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T40" s="5" t="n"/>
     </row>
@@ -60319,7 +60363,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -60843,27 +60887,27 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Jon-Anders Haukøy</t>
+          <t>André Seliussen</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E57" s="17" t="inlineStr">
         <is>
-          <t>9,01,22</t>
+          <t>8,44,96</t>
         </is>
       </c>
       <c r="F57" s="7" t="n">
-        <v>684</v>
+        <v>748</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>20.02</v>
+        <v>19.06</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -61146,7 +61190,7 @@
         </is>
       </c>
       <c r="F64" s="21" t="n">
-        <v>7354</v>
+        <v>7418</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="20" t="inlineStr">
@@ -61307,19 +61351,19 @@
       </c>
       <c r="O69" s="17" t="inlineStr">
         <is>
-          <t>3,50,09</t>
+          <t>3,49,52</t>
         </is>
       </c>
       <c r="P69" s="7" t="n">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>2.06</v>
+        <v>23.07</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
@@ -61510,24 +61554,24 @@
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Andreas Skulstad Størkson</t>
+          <t>Jon-Anders Haukøy</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E73" s="17" t="inlineStr">
         <is>
-          <t>4,09,22</t>
+          <t>9,01,22</t>
         </is>
       </c>
       <c r="F73" s="7" t="n">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
@@ -61535,7 +61579,7 @@
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>29.01</v>
+        <v>20.02</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
@@ -61553,19 +61597,19 @@
       </c>
       <c r="O73" s="17" t="inlineStr">
         <is>
-          <t>3,51,82</t>
+          <t>3,51,51</t>
         </is>
       </c>
       <c r="P73" s="7" t="n">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>2.06</v>
+        <v>23.07</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
@@ -61696,7 +61740,7 @@
         </is>
       </c>
       <c r="F78" s="21" t="n">
-        <v>3934</v>
+        <v>3940</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="20" t="inlineStr">
@@ -61713,7 +61757,7 @@
         </is>
       </c>
       <c r="P78" s="21" t="n">
-        <v>4264</v>
+        <v>4274</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -61736,7 +61780,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>11288</v>
+        <v>11358</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="20" t="inlineStr">
@@ -61753,7 +61797,7 @@
         </is>
       </c>
       <c r="P80" s="21" t="n">
-        <v>11162</v>
+        <v>11172</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -63437,7 +63481,7 @@
         </is>
       </c>
       <c r="P128" s="8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -63740,18 +63784,18 @@
         <v>2009</v>
       </c>
       <c r="O137" s="15" t="n">
-        <v>30.7</v>
+        <v>29.94</v>
       </c>
       <c r="P137" s="7" t="n">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>15.05</v>
+        <v>19.06</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -64209,7 +64253,7 @@
         </is>
       </c>
       <c r="P148" s="21" t="n">
-        <v>4850</v>
+        <v>4891</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -64761,7 +64805,7 @@
         </is>
       </c>
       <c r="P164" s="21" t="n">
-        <v>8202</v>
+        <v>8243</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -64831,7 +64875,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -65301,19 +65345,19 @@
       </c>
       <c r="E182" s="17" t="inlineStr">
         <is>
-          <t>9,10,21</t>
+          <t>9,03,32</t>
         </is>
       </c>
       <c r="F182" s="7" t="n">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="G182" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H182" s="16" t="n">
-        <v>29.05</v>
+        <v>19.06</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="14" t="inlineStr">
@@ -65654,7 +65698,7 @@
         </is>
       </c>
       <c r="F190" s="21" t="n">
-        <v>5179</v>
+        <v>5205</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="20" t="inlineStr">
@@ -66254,7 +66298,7 @@
         </is>
       </c>
       <c r="F206" s="21" t="n">
-        <v>7929</v>
+        <v>7955</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="20" t="inlineStr">
@@ -66355,7 +66399,7 @@
         </is>
       </c>
       <c r="P212" s="8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T212" s="5" t="n"/>
     </row>
@@ -66593,25 +66637,25 @@
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Andreas Brakstad Klausen</t>
+          <t>Nikolai Normann Sivertsen Torvund</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>31.16</v>
+        <v>29.76</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>19.02</v>
+        <v>21.06</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -66870,18 +66914,18 @@
         <v>2005</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>5.82</v>
+        <v>6.03</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>565</v>
+        <v>613</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>5.06</v>
+        <v>19.06</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -67176,7 +67220,7 @@
         </is>
       </c>
       <c r="F232" s="21" t="n">
-        <v>5780</v>
+        <v>5828</v>
       </c>
       <c r="J232" s="5" t="n"/>
       <c r="L232" s="20" t="inlineStr">
@@ -67193,7 +67237,7 @@
         </is>
       </c>
       <c r="P232" s="21" t="n">
-        <v>3815</v>
+        <v>3891</v>
       </c>
       <c r="T232" s="5" t="n"/>
     </row>
@@ -67720,7 +67764,7 @@
         </is>
       </c>
       <c r="F248" s="21" t="n">
-        <v>6858</v>
+        <v>6906</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="20" t="inlineStr">
@@ -67737,7 +67781,7 @@
         </is>
       </c>
       <c r="P248" s="21" t="n">
-        <v>6584</v>
+        <v>6660</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
@@ -67761,7 +67805,7 @@
         </is>
       </c>
       <c r="M250" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -67821,7 +67865,7 @@
         </is>
       </c>
       <c r="P254" s="8" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -67833,7 +67877,7 @@
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Fyllingen IL 2. lag</t>
+          <t>Ask Friidrett 2. lag</t>
         </is>
       </c>
       <c r="J255" s="5" t="n"/>
@@ -67844,7 +67888,7 @@
       </c>
       <c r="M255" s="7" t="inlineStr">
         <is>
-          <t>Fana IL 3. lag</t>
+          <t>Fyllingen IL 2. lag</t>
         </is>
       </c>
       <c r="T255" s="5" t="n"/>
@@ -67973,17 +68017,17 @@
       </c>
       <c r="C261" s="7" t="inlineStr">
         <is>
-          <t>Jonas Langeland Andersen</t>
+          <t>Fredrik Johnsen</t>
         </is>
       </c>
       <c r="D261" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E261" s="15" t="n">
-        <v>8.42</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F261" s="7" t="n">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="G261" s="7" t="inlineStr">
         <is>
@@ -67991,7 +68035,7 @@
         </is>
       </c>
       <c r="H261" s="16" t="n">
-        <v>22.01</v>
+        <v>19.03</v>
       </c>
       <c r="J261" s="5" t="n"/>
       <c r="L261" s="14" t="inlineStr">
@@ -68001,25 +68045,25 @@
       </c>
       <c r="M261" s="7" t="inlineStr">
         <is>
-          <t>Andre Devinci Alford</t>
+          <t>Jonas Langeland Andersen</t>
         </is>
       </c>
       <c r="N261" s="7" t="n">
-        <v>1972</v>
+        <v>2008</v>
       </c>
       <c r="O261" s="15" t="n">
-        <v>7.8</v>
+        <v>8.42</v>
       </c>
       <c r="P261" s="7" t="n">
-        <v>558</v>
+        <v>374</v>
       </c>
       <c r="Q261" s="7" t="inlineStr">
         <is>
-          <t>Braga/POR</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R261" s="16" t="n">
-        <v>23.02</v>
+        <v>22.01</v>
       </c>
       <c r="T261" s="5" t="n"/>
     </row>
@@ -68031,17 +68075,17 @@
       </c>
       <c r="C262" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Stenerud</t>
+          <t>Brede Bergheim</t>
         </is>
       </c>
       <c r="D262" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E262" s="15" t="n">
-        <v>13.3</v>
+        <v>13.54</v>
       </c>
       <c r="F262" s="7" t="n">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="G262" s="7" t="inlineStr">
         <is>
@@ -68059,17 +68103,17 @@
       </c>
       <c r="M262" s="7" t="inlineStr">
         <is>
-          <t>Finn Connor Saint</t>
+          <t>Kristoffer Stenerud</t>
         </is>
       </c>
       <c r="N262" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O262" s="15" t="n">
-        <v>13.12</v>
+        <v>13.3</v>
       </c>
       <c r="P262" s="7" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="Q262" s="7" t="inlineStr">
         <is>
@@ -68089,25 +68133,25 @@
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Stenerud</t>
+          <t>Fredrik Johnsen</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E263" s="15" t="n">
-        <v>27.29</v>
+        <v>27.32</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>15.05</v>
+        <v>29.01</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
@@ -68117,17 +68161,17 @@
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>Finn Connor Saint</t>
+          <t>Kristoffer Stenerud</t>
         </is>
       </c>
       <c r="N263" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O263" s="15" t="n">
-        <v>26.88</v>
+        <v>27.29</v>
       </c>
       <c r="P263" s="7" t="n">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="Q263" s="7" t="inlineStr">
         <is>
@@ -68142,116 +68186,116 @@
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Eirik Markussen</t>
+          <t>Imre Marius Skiftesvik Opdahl</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E264" s="17" t="inlineStr">
         <is>
-          <t>1,02,13</t>
+          <t>2,12,48</t>
         </is>
       </c>
       <c r="F264" s="7" t="n">
-        <v>354</v>
+        <v>491</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>20.02</v>
+        <v>5.03</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Nils August Flornes Rustad</t>
+          <t>Eirik Markussen</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O264" s="17" t="inlineStr">
         <is>
-          <t>2,11,06</t>
+          <t>1,02,13</t>
         </is>
       </c>
       <c r="P264" s="7" t="n">
-        <v>509</v>
+        <v>354</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>14.05</v>
+        <v>20.02</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Eirik Markussen</t>
+          <t>Kristoffer Johnson</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E265" s="17" t="inlineStr">
         <is>
-          <t>2,17,29</t>
+          <t>4,19,04+</t>
         </is>
       </c>
       <c r="F265" s="7" t="n">
-        <v>431</v>
+        <v>601</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>27.05</v>
+        <v>1.08</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Nils August Flornes Rustad</t>
+          <t>Eirik Markussen</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O265" s="17" t="inlineStr">
         <is>
-          <t>4,31,20</t>
+          <t>2,17,29</t>
         </is>
       </c>
       <c r="P265" s="7" t="n">
-        <v>518</v>
+        <v>431</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
@@ -68259,295 +68303,295 @@
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>28.05</v>
+        <v>27.05</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Eirik Markussen</t>
+          <t>Åsmund Skålevik</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2008</v>
+        <v>1976</v>
       </c>
       <c r="E266" s="17" t="inlineStr">
         <is>
-          <t>4,46,06</t>
+          <t>11,08,71</t>
         </is>
       </c>
       <c r="F266" s="7" t="n">
-        <v>427</v>
+        <v>314</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>12.06</v>
+        <v>1.06</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Karl Jacob Sævil</t>
+          <t>Eirik Markussen</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
-        <v>1994</v>
+        <v>2008</v>
       </c>
       <c r="O266" s="17" t="inlineStr">
         <is>
-          <t>12,16,4</t>
+          <t>4,46,06</t>
         </is>
       </c>
       <c r="P266" s="7" t="n">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Leikanger</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>14.05</v>
+        <v>12.06</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Skoge-Nilsen</t>
+          <t>Lars Eliassen</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E267" s="17" t="inlineStr">
-        <is>
-          <t>9,58,54</t>
-        </is>
+        <v>1978</v>
+      </c>
+      <c r="E267" s="15" t="n">
+        <v>4.38</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>494</v>
+        <v>217</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>10.06</v>
+        <v>1.06</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Nikolai Gald</t>
+          <t>Sebastian Skoge-Nilsen</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O267" s="15" t="n">
-        <v>1.4</v>
+        <v>2006</v>
+      </c>
+      <c r="O267" s="17" t="inlineStr">
+        <is>
+          <t>9,58,54</t>
+        </is>
       </c>
       <c r="P267" s="7" t="n">
-        <v>233</v>
+        <v>494</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>7.06</v>
+        <v>10.06</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Stenerud</t>
+          <t>Viljar Hjelle</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>5.06</v>
+        <v>1.26</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>10.06</v>
+        <v>14.03</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Felix Victor Wiger-Nordås</t>
+          <t>Kristoffer Stenerud</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O268" s="15" t="n">
-        <v>2</v>
+        <v>5.06</v>
       </c>
       <c r="P268" s="7" t="n">
-        <v>196</v>
+        <v>386</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>27.05</v>
+        <v>10.06</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Stenerud</t>
+          <t>Viljar Hjelle</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>11.06</v>
+        <v>2.3</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>454</v>
+        <v>180</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>15.05</v>
+        <v>19.03</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Finn Connor Saint</t>
+          <t>Kristoffer Stenerud</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>5.01</v>
+        <v>11.06</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>13.01</v>
+        <v>15.05</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Jonas Langeland Andersen</t>
+          <t>Lars Eliassen</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2008</v>
+        <v>1978</v>
       </c>
       <c r="E270" s="15" t="n">
-        <v>2.39</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>19.03</v>
+        <v>1.06</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Finn Connor Saint</t>
+          <t>Jonas Langeland Andersen</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>10.44</v>
+        <v>2.39</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>382</v>
+        <v>269</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
@@ -68555,7 +68599,7 @@
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>13.01</v>
+        <v>19.03</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -68628,7 +68672,7 @@
         </is>
       </c>
       <c r="F274" s="21" t="n">
-        <v>3942</v>
+        <v>3678</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="20" t="inlineStr">
@@ -68645,7 +68689,7 @@
         </is>
       </c>
       <c r="P274" s="21" t="n">
-        <v>3760</v>
+        <v>3942</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -68748,238 +68792,240 @@
     <row r="279" ht="13" customHeight="1">
       <c r="B279" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Skoge-Nilsen</t>
+          <t>Imre Marius Skiftesvik Opdahl</t>
         </is>
       </c>
       <c r="D279" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E279" s="17" t="inlineStr">
         <is>
-          <t>2,19,58</t>
+          <t>4,31,97</t>
         </is>
       </c>
       <c r="F279" s="7" t="n">
-        <v>405</v>
+        <v>513</v>
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>11.06</v>
+        <v>4.03</v>
       </c>
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M279" s="7" t="inlineStr">
         <is>
-          <t>Finn Connor Saint</t>
+          <t>Sebastian Skoge-Nilsen</t>
         </is>
       </c>
       <c r="N279" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O279" s="15" t="n">
-        <v>8.1</v>
+        <v>2006</v>
+      </c>
+      <c r="O279" s="17" t="inlineStr">
+        <is>
+          <t>2,19,58</t>
+        </is>
       </c>
       <c r="P279" s="7" t="n">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="Q279" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R279" s="16" t="n">
-        <v>19.03</v>
+        <v>11.06</v>
       </c>
       <c r="T279" s="5" t="n"/>
     </row>
     <row r="280" ht="13" customHeight="1">
       <c r="B280" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>Jonas Langeland Andersen</t>
+          <t>Tobias Natland</t>
         </is>
       </c>
       <c r="D280" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E280" s="15" t="n">
-        <v>10.42</v>
+        <v>2005</v>
+      </c>
+      <c r="E280" s="17" t="inlineStr">
+        <is>
+          <t>2,13,72</t>
+        </is>
       </c>
       <c r="F280" s="7" t="n">
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="G280" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H280" s="16" t="n">
-        <v>27.05</v>
+        <v>18.06</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M280" s="7" t="inlineStr">
         <is>
-          <t>Andre Devinci Alford</t>
+          <t>Jonas Langeland Andersen</t>
         </is>
       </c>
       <c r="N280" s="7" t="n">
-        <v>1972</v>
+        <v>2008</v>
       </c>
       <c r="O280" s="15" t="n">
-        <v>27.08</v>
+        <v>10.42</v>
       </c>
       <c r="P280" s="7" t="n">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="Q280" s="7" t="inlineStr">
         <is>
-          <t>Braga/POR</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R280" s="16" t="n">
-        <v>25.02</v>
+        <v>27.05</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
     <row r="281" ht="13" customHeight="1">
       <c r="B281" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>Jonas Langeland Andersen</t>
+          <t>Oskar Natland</t>
         </is>
       </c>
       <c r="D281" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E281" s="15" t="n">
-        <v>4.99</v>
+        <v>2005</v>
+      </c>
+      <c r="E281" s="17" t="inlineStr">
+        <is>
+          <t>2,13,79</t>
+        </is>
       </c>
       <c r="F281" s="7" t="n">
-        <v>369</v>
+        <v>474</v>
       </c>
       <c r="G281" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H281" s="16" t="n">
-        <v>28.05</v>
+        <v>18.06</v>
       </c>
       <c r="J281" s="5" t="n"/>
       <c r="L281" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M281" s="7" t="inlineStr">
         <is>
-          <t>Håvard Nøttestad</t>
+          <t>Jonas Langeland Andersen</t>
         </is>
       </c>
       <c r="N281" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O281" s="17" t="inlineStr">
-        <is>
-          <t>2,21,02</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O281" s="15" t="n">
+        <v>4.99</v>
       </c>
       <c r="P281" s="7" t="n">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="Q281" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R281" s="16" t="n">
-        <v>6.07</v>
+        <v>28.05</v>
       </c>
       <c r="T281" s="5" t="n"/>
     </row>
     <row r="282" ht="13" customHeight="1">
       <c r="B282" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
         <is>
-          <t>Eirik Markussen</t>
+          <t>Viljar Hjelle</t>
         </is>
       </c>
       <c r="D282" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E282" s="15" t="n">
-        <v>27.97</v>
+        <v>8.24</v>
       </c>
       <c r="F282" s="7" t="n">
-        <v>339</v>
+        <v>424</v>
       </c>
       <c r="G282" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H282" s="16" t="n">
-        <v>15.05</v>
+        <v>19.03</v>
       </c>
       <c r="J282" s="5" t="n"/>
       <c r="L282" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M282" s="7" t="inlineStr">
         <is>
-          <t>Magnus Hauge Øyen</t>
+          <t>Eirik Markussen</t>
         </is>
       </c>
       <c r="N282" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O282" s="17" t="inlineStr">
-        <is>
-          <t>4,56,73</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O282" s="15" t="n">
+        <v>27.97</v>
       </c>
       <c r="P282" s="7" t="n">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="Q282" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R282" s="16" t="n">
-        <v>22.06</v>
+        <v>15.05</v>
       </c>
       <c r="T282" s="5" t="n"/>
     </row>
@@ -68991,47 +69037,45 @@
       </c>
       <c r="C283" s="7" t="inlineStr">
         <is>
-          <t>Jonas Langeland Andersen</t>
+          <t>Brede Bergheim</t>
         </is>
       </c>
       <c r="D283" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E283" s="15" t="n">
-        <v>28.17</v>
+        <v>27.48</v>
       </c>
       <c r="F283" s="7" t="n">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="G283" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H283" s="16" t="n">
-        <v>23.01</v>
+        <v>15.05</v>
       </c>
       <c r="J283" s="5" t="n"/>
       <c r="L283" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M283" s="7" t="inlineStr">
         <is>
-          <t>Håvard Nøttestad</t>
+          <t>Jonas Langeland Andersen</t>
         </is>
       </c>
       <c r="N283" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O283" s="17" t="inlineStr">
-        <is>
-          <t>5,00,5</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O283" s="15" t="n">
+        <v>28.17</v>
       </c>
       <c r="P283" s="7" t="n">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="Q283" s="7" t="inlineStr">
         <is>
@@ -69039,162 +69083,162 @@
         </is>
       </c>
       <c r="R283" s="16" t="n">
-        <v>21.01</v>
+        <v>23.01</v>
       </c>
       <c r="T283" s="5" t="n"/>
     </row>
     <row r="284" ht="13" customHeight="1">
       <c r="B284" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C284" s="7" t="inlineStr">
         <is>
-          <t>Eirik Markussen</t>
+          <t>Brede Bergheim</t>
         </is>
       </c>
       <c r="D284" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E284" s="15" t="n">
-        <v>8.67</v>
+        <v>4.38</v>
       </c>
       <c r="F284" s="7" t="n">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="G284" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H284" s="16" t="n">
-        <v>3.06</v>
+        <v>20.02</v>
       </c>
       <c r="J284" s="5" t="n"/>
       <c r="L284" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M284" s="7" t="inlineStr">
         <is>
-          <t>Felix Victor Wiger-Nordås</t>
+          <t>Eirik Markussen</t>
         </is>
       </c>
       <c r="N284" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O284" s="15" t="n">
-        <v>1.35</v>
+        <v>8.67</v>
       </c>
       <c r="P284" s="7" t="n">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="Q284" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R284" s="16" t="n">
-        <v>13.01</v>
+        <v>3.06</v>
       </c>
       <c r="T284" s="5" t="n"/>
     </row>
     <row r="285" ht="13" customHeight="1">
       <c r="B285" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>Sivert Engen Holgersen</t>
+          <t>Brede Bergheim</t>
         </is>
       </c>
       <c r="D285" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E285" s="15" t="n">
-        <v>8.720000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="F285" s="7" t="n">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="G285" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H285" s="16" t="n">
-        <v>3.06</v>
+        <v>19.03</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M285" s="7" t="inlineStr">
         <is>
-          <t>Andreas Avlesen</t>
+          <t>Sivert Engen Holgersen</t>
         </is>
       </c>
       <c r="N285" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="O285" s="15" t="n">
-        <v>4.14</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="P285" s="7" t="n">
-        <v>156</v>
+        <v>295</v>
       </c>
       <c r="Q285" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R285" s="16" t="n">
-        <v>14.05</v>
+        <v>3.06</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
     <row r="286" ht="13" customHeight="1">
-      <c r="B286" s="14" t="n"/>
-      <c r="C286" s="7" t="n"/>
-      <c r="D286" s="7" t="n"/>
-      <c r="E286" s="7" t="n"/>
-      <c r="F286" s="7" t="n"/>
-      <c r="G286" s="7" t="n"/>
-      <c r="H286" s="18" t="n"/>
+      <c r="B286" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C286" s="7" t="inlineStr">
+        <is>
+          <t>Henrik Villanger</t>
+        </is>
+      </c>
+      <c r="D286" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E286" s="15" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F286" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G286" s="7" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="H286" s="16" t="n">
+        <v>19.03</v>
+      </c>
       <c r="J286" s="5" t="n"/>
-      <c r="L286" s="14" t="inlineStr">
-        <is>
-          <t>Høyde</t>
-        </is>
-      </c>
-      <c r="M286" s="7" t="inlineStr">
-        <is>
-          <t>Herman Constantin Vietheer</t>
-        </is>
-      </c>
-      <c r="N286" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O286" s="15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P286" s="7" t="n">
-        <v>154</v>
-      </c>
-      <c r="Q286" s="7" t="inlineStr">
-        <is>
-          <t>Fana</t>
-        </is>
-      </c>
-      <c r="R286" s="16" t="n">
-        <v>15.05</v>
-      </c>
+      <c r="L286" s="14" t="n"/>
+      <c r="M286" s="7" t="n"/>
+      <c r="N286" s="7" t="n"/>
+      <c r="O286" s="7" t="n"/>
+      <c r="P286" s="7" t="n"/>
+      <c r="Q286" s="7" t="n"/>
+      <c r="R286" s="18" t="n"/>
       <c r="T286" s="5" t="n"/>
     </row>
     <row r="287" ht="13" customHeight="1">
@@ -69222,7 +69266,7 @@
         </is>
       </c>
       <c r="C288" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E288" s="20" t="inlineStr">
         <is>
@@ -69230,7 +69274,7 @@
         </is>
       </c>
       <c r="F288" s="21" t="n">
-        <v>2422</v>
+        <v>2693</v>
       </c>
       <c r="J288" s="5" t="n"/>
       <c r="L288" s="20" t="inlineStr">
@@ -69239,7 +69283,7 @@
         </is>
       </c>
       <c r="M288" s="21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O288" s="20" t="inlineStr">
         <is>
@@ -69247,7 +69291,7 @@
         </is>
       </c>
       <c r="P288" s="21" t="n">
-        <v>2446</v>
+        <v>2422</v>
       </c>
       <c r="T288" s="5" t="n"/>
     </row>
@@ -69262,7 +69306,7 @@
         </is>
       </c>
       <c r="C290" s="21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E290" s="20" t="inlineStr">
         <is>
@@ -69270,7 +69314,7 @@
         </is>
       </c>
       <c r="F290" s="21" t="n">
-        <v>6364</v>
+        <v>6371</v>
       </c>
       <c r="J290" s="5" t="n"/>
       <c r="L290" s="20" t="inlineStr">
@@ -69279,7 +69323,7 @@
         </is>
       </c>
       <c r="M290" s="21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O290" s="20" t="inlineStr">
         <is>
@@ -69287,7 +69331,7 @@
         </is>
       </c>
       <c r="P290" s="21" t="n">
-        <v>6206</v>
+        <v>6364</v>
       </c>
       <c r="T290" s="5" t="n"/>
     </row>
@@ -69302,7 +69346,7 @@
         </is>
       </c>
       <c r="C292" s="21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="20" t="inlineStr">
@@ -69311,7 +69355,7 @@
         </is>
       </c>
       <c r="M292" s="21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
@@ -69357,7 +69401,7 @@
         </is>
       </c>
       <c r="F296" s="8" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="6" t="inlineStr">
@@ -69371,7 +69415,7 @@
         </is>
       </c>
       <c r="P296" s="8" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -69383,7 +69427,7 @@
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Ask Friidrett 2. lag</t>
+          <t>Fana IL 3. lag</t>
         </is>
       </c>
       <c r="J297" s="5" t="n"/>
@@ -69523,25 +69567,25 @@
       </c>
       <c r="C303" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Johnsen</t>
+          <t>Andre Devinci Alford</t>
         </is>
       </c>
       <c r="D303" s="7" t="n">
-        <v>2005</v>
+        <v>1972</v>
       </c>
       <c r="E303" s="15" t="n">
-        <v>8.130000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="F303" s="7" t="n">
-        <v>456</v>
+        <v>558</v>
       </c>
       <c r="G303" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Braga/POR</t>
         </is>
       </c>
       <c r="H303" s="16" t="n">
-        <v>19.03</v>
+        <v>23.02</v>
       </c>
       <c r="J303" s="5" t="n"/>
       <c r="L303" s="14" t="inlineStr">
@@ -69581,17 +69625,17 @@
       </c>
       <c r="C304" s="7" t="inlineStr">
         <is>
-          <t>Brede Bergheim</t>
+          <t>Finn Connor Saint</t>
         </is>
       </c>
       <c r="D304" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E304" s="15" t="n">
-        <v>13.54</v>
+        <v>13.12</v>
       </c>
       <c r="F304" s="7" t="n">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="G304" s="7" t="inlineStr">
         <is>
@@ -69639,25 +69683,25 @@
       </c>
       <c r="C305" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Johnsen</t>
+          <t>Finn Connor Saint</t>
         </is>
       </c>
       <c r="D305" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E305" s="15" t="n">
-        <v>27.32</v>
+        <v>26.88</v>
       </c>
       <c r="F305" s="7" t="n">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="G305" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H305" s="16" t="n">
-        <v>29.01</v>
+        <v>15.05</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="14" t="inlineStr">
@@ -69697,27 +69741,27 @@
       </c>
       <c r="C306" s="7" t="inlineStr">
         <is>
-          <t>Imre Marius Skiftesvik Opdahl</t>
+          <t>Nils August Flornes Rustad</t>
         </is>
       </c>
       <c r="D306" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E306" s="17" t="inlineStr">
         <is>
-          <t>2,12,48</t>
+          <t>2,11,06</t>
         </is>
       </c>
       <c r="F306" s="7" t="n">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="G306" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H306" s="16" t="n">
-        <v>5.03</v>
+        <v>14.05</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="14" t="inlineStr">
@@ -69759,27 +69803,27 @@
       </c>
       <c r="C307" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Johnson</t>
+          <t>Nils August Flornes Rustad</t>
         </is>
       </c>
       <c r="D307" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E307" s="17" t="inlineStr">
         <is>
-          <t>4,19,04+</t>
+          <t>4,31,20</t>
         </is>
       </c>
       <c r="F307" s="7" t="n">
-        <v>601</v>
+        <v>518</v>
       </c>
       <c r="G307" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H307" s="16" t="n">
-        <v>1.08</v>
+        <v>28.05</v>
       </c>
       <c r="J307" s="5" t="n"/>
       <c r="L307" s="14" t="inlineStr">
@@ -69821,27 +69865,27 @@
       </c>
       <c r="C308" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Skålevik</t>
+          <t>Karl Jacob Sævil</t>
         </is>
       </c>
       <c r="D308" s="7" t="n">
-        <v>1976</v>
+        <v>1994</v>
       </c>
       <c r="E308" s="17" t="inlineStr">
         <is>
-          <t>11,08,71</t>
+          <t>12,16,4</t>
         </is>
       </c>
       <c r="F308" s="7" t="n">
-        <v>314</v>
+        <v>179</v>
       </c>
       <c r="G308" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Leikanger</t>
         </is>
       </c>
       <c r="H308" s="16" t="n">
-        <v>1.06</v>
+        <v>14.05</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="14" t="inlineStr">
@@ -69878,30 +69922,30 @@
     <row r="309" ht="13" customHeight="1">
       <c r="B309" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C309" s="7" t="inlineStr">
         <is>
-          <t>Lars Eliassen</t>
+          <t>Nikolai Gald</t>
         </is>
       </c>
       <c r="D309" s="7" t="n">
-        <v>1978</v>
+        <v>2011</v>
       </c>
       <c r="E309" s="15" t="n">
-        <v>4.38</v>
+        <v>1.4</v>
       </c>
       <c r="F309" s="7" t="n">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="G309" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H309" s="16" t="n">
-        <v>1.06</v>
+        <v>7.06</v>
       </c>
       <c r="J309" s="5" t="n"/>
       <c r="L309" s="14" t="inlineStr">
@@ -69938,30 +69982,30 @@
     <row r="310" ht="13" customHeight="1">
       <c r="B310" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
         <is>
-          <t>Viljar Hjelle</t>
+          <t>Felix Victor Wiger-Nordås</t>
         </is>
       </c>
       <c r="D310" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E310" s="15" t="n">
-        <v>1.26</v>
+        <v>2</v>
       </c>
       <c r="F310" s="7" t="n">
-        <v>382</v>
+        <v>196</v>
       </c>
       <c r="G310" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H310" s="16" t="n">
-        <v>14.03</v>
+        <v>27.05</v>
       </c>
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
@@ -69998,22 +70042,22 @@
     <row r="311" ht="13" customHeight="1">
       <c r="B311" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
         <is>
-          <t>Viljar Hjelle</t>
+          <t>Finn Connor Saint</t>
         </is>
       </c>
       <c r="D311" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E311" s="15" t="n">
-        <v>2.3</v>
+        <v>5.01</v>
       </c>
       <c r="F311" s="7" t="n">
-        <v>180</v>
+        <v>374</v>
       </c>
       <c r="G311" s="7" t="inlineStr">
         <is>
@@ -70021,7 +70065,7 @@
         </is>
       </c>
       <c r="H311" s="16" t="n">
-        <v>19.03</v>
+        <v>13.01</v>
       </c>
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
@@ -70056,30 +70100,30 @@
     <row r="312" ht="13" customHeight="1">
       <c r="B312" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
         <is>
-          <t>Lars Eliassen</t>
+          <t>Finn Connor Saint</t>
         </is>
       </c>
       <c r="D312" s="7" t="n">
-        <v>1978</v>
+        <v>2008</v>
       </c>
       <c r="E312" s="15" t="n">
-        <v>8.390000000000001</v>
+        <v>10.44</v>
       </c>
       <c r="F312" s="7" t="n">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="G312" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H312" s="16" t="n">
-        <v>1.06</v>
+        <v>13.01</v>
       </c>
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
@@ -70220,7 +70264,7 @@
         </is>
       </c>
       <c r="F316" s="21" t="n">
-        <v>3678</v>
+        <v>3760</v>
       </c>
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="20" t="inlineStr">
@@ -70340,32 +70384,30 @@
     <row r="321" ht="13" customHeight="1">
       <c r="B321" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C321" s="7" t="inlineStr">
         <is>
-          <t>Imre Marius Skiftesvik Opdahl</t>
+          <t>Finn Connor Saint</t>
         </is>
       </c>
       <c r="D321" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E321" s="17" t="inlineStr">
-        <is>
-          <t>4,31,97</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E321" s="15" t="n">
+        <v>8.1</v>
       </c>
       <c r="F321" s="7" t="n">
-        <v>513</v>
+        <v>465</v>
       </c>
       <c r="G321" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H321" s="16" t="n">
-        <v>4.03</v>
+        <v>19.03</v>
       </c>
       <c r="J321" s="5" t="n"/>
       <c r="L321" s="14" t="inlineStr">
@@ -70402,30 +70444,30 @@
     <row r="322" ht="13" customHeight="1">
       <c r="B322" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C322" s="7" t="inlineStr">
         <is>
-          <t>Viljar Hjelle</t>
+          <t>Andre Devinci Alford</t>
         </is>
       </c>
       <c r="D322" s="7" t="n">
-        <v>2008</v>
+        <v>1972</v>
       </c>
       <c r="E322" s="15" t="n">
-        <v>8.24</v>
+        <v>27.08</v>
       </c>
       <c r="F322" s="7" t="n">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="G322" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Braga/POR</t>
         </is>
       </c>
       <c r="H322" s="16" t="n">
-        <v>19.03</v>
+        <v>25.02</v>
       </c>
       <c r="J322" s="5" t="n"/>
       <c r="L322" s="14" t="inlineStr">
@@ -70462,30 +70504,32 @@
     <row r="323" ht="13" customHeight="1">
       <c r="B323" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C323" s="7" t="inlineStr">
         <is>
-          <t>Brede Bergheim</t>
+          <t>Håvard Nøttestad</t>
         </is>
       </c>
       <c r="D323" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E323" s="15" t="n">
-        <v>27.48</v>
+        <v>2007</v>
+      </c>
+      <c r="E323" s="17" t="inlineStr">
+        <is>
+          <t>2,21,02</t>
+        </is>
       </c>
       <c r="F323" s="7" t="n">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="G323" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H323" s="16" t="n">
-        <v>15.05</v>
+        <v>6.07</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="14" t="inlineStr">
@@ -70527,7 +70571,7 @@
       </c>
       <c r="C324" s="7" t="inlineStr">
         <is>
-          <t>Hector Breivik</t>
+          <t>Magnus Hauge Øyen</t>
         </is>
       </c>
       <c r="D324" s="7" t="n">
@@ -70535,19 +70579,19 @@
       </c>
       <c r="E324" s="17" t="inlineStr">
         <is>
-          <t>4,56,84</t>
+          <t>4,56,73</t>
         </is>
       </c>
       <c r="F324" s="7" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G324" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H324" s="16" t="n">
-        <v>20.07</v>
+        <v>22.06</v>
       </c>
       <c r="J324" s="5" t="n"/>
       <c r="L324" s="14" t="inlineStr">
@@ -70584,22 +70628,24 @@
     <row r="325" ht="13" customHeight="1">
       <c r="B325" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C325" s="7" t="inlineStr">
         <is>
-          <t>Herman Andreassen</t>
+          <t>Håvard Nøttestad</t>
         </is>
       </c>
       <c r="D325" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E325" s="15" t="n">
-        <v>8.460000000000001</v>
+        <v>2007</v>
+      </c>
+      <c r="E325" s="17" t="inlineStr">
+        <is>
+          <t>5,00,5</t>
+        </is>
       </c>
       <c r="F325" s="7" t="n">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G325" s="7" t="inlineStr">
         <is>
@@ -70607,7 +70653,7 @@
         </is>
       </c>
       <c r="H325" s="16" t="n">
-        <v>19.03</v>
+        <v>21.01</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="14" t="inlineStr">
@@ -70642,22 +70688,22 @@
     <row r="326" ht="13" customHeight="1">
       <c r="B326" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C326" s="7" t="inlineStr">
         <is>
-          <t>Brede Bergheim</t>
+          <t>Felix Victor Wiger-Nordås</t>
         </is>
       </c>
       <c r="D326" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E326" s="15" t="n">
-        <v>4.38</v>
+        <v>1.35</v>
       </c>
       <c r="F326" s="7" t="n">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="G326" s="7" t="inlineStr">
         <is>
@@ -70665,7 +70711,7 @@
         </is>
       </c>
       <c r="H326" s="16" t="n">
-        <v>20.02</v>
+        <v>13.01</v>
       </c>
       <c r="J326" s="5" t="n"/>
       <c r="L326" s="14" t="inlineStr">
@@ -70702,30 +70748,30 @@
     <row r="327" ht="13" customHeight="1">
       <c r="B327" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C327" s="7" t="inlineStr">
         <is>
-          <t>Brede Bergheim</t>
+          <t>Andreas Avlesen</t>
         </is>
       </c>
       <c r="D327" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E327" s="15" t="n">
-        <v>2.29</v>
+        <v>4.14</v>
       </c>
       <c r="F327" s="7" t="n">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G327" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H327" s="16" t="n">
-        <v>19.03</v>
+        <v>14.05</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="14" t="n"/>
@@ -70740,30 +70786,30 @@
     <row r="328" ht="13" customHeight="1">
       <c r="B328" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>Henrik Villanger</t>
+          <t>Herman Constantin Vietheer</t>
         </is>
       </c>
       <c r="D328" s="7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E328" s="15" t="n">
-        <v>2.17</v>
+        <v>1.34</v>
       </c>
       <c r="F328" s="7" t="n">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="G328" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H328" s="16" t="n">
-        <v>19.03</v>
+        <v>15.05</v>
       </c>
       <c r="J328" s="5" t="n"/>
       <c r="L328" s="14" t="n"/>
@@ -70808,7 +70854,7 @@
         </is>
       </c>
       <c r="F330" s="21" t="n">
-        <v>2475</v>
+        <v>2446</v>
       </c>
       <c r="J330" s="5" t="n"/>
       <c r="L330" s="20" t="inlineStr">
@@ -70848,7 +70894,7 @@
         </is>
       </c>
       <c r="F332" s="21" t="n">
-        <v>6153</v>
+        <v>6206</v>
       </c>
       <c r="J332" s="5" t="n"/>
       <c r="L332" s="20" t="inlineStr">
@@ -71909,19 +71955,19 @@
       </c>
       <c r="O365" s="17" t="inlineStr">
         <is>
-          <t>4,41,68</t>
+          <t>4,41,12</t>
         </is>
       </c>
       <c r="P365" s="7" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q365" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R365" s="16" t="n">
-        <v>28.05</v>
+        <v>19.06</v>
       </c>
       <c r="T365" s="5" t="n"/>
     </row>
@@ -72044,7 +72090,7 @@
     <row r="368" ht="13" customHeight="1">
       <c r="B368" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C368" s="7" t="inlineStr">
@@ -72056,18 +72102,18 @@
         <v>2008</v>
       </c>
       <c r="E368" s="15" t="n">
-        <v>8.93</v>
+        <v>1.41</v>
       </c>
       <c r="F368" s="7" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G368" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H368" s="16" t="n">
-        <v>13.03</v>
+        <v>19.06</v>
       </c>
       <c r="J368" s="5" t="n"/>
       <c r="L368" s="14" t="n"/>
@@ -72082,22 +72128,22 @@
     <row r="369" ht="13" customHeight="1">
       <c r="B369" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>Kasper Habbestad Fylkesnes</t>
+          <t>Viljar Aarskog</t>
         </is>
       </c>
       <c r="D369" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E369" s="15" t="n">
-        <v>4.46</v>
+        <v>8.93</v>
       </c>
       <c r="F369" s="7" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G369" s="7" t="inlineStr">
         <is>
@@ -72120,30 +72166,30 @@
     <row r="370" ht="13" customHeight="1">
       <c r="B370" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C370" s="7" t="inlineStr">
         <is>
-          <t>Viljar Aarskog</t>
+          <t>Kasper Habbestad Fylkesnes</t>
         </is>
       </c>
       <c r="D370" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E370" s="15" t="n">
-        <v>1.4</v>
+        <v>4.46</v>
       </c>
       <c r="F370" s="7" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G370" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H370" s="16" t="n">
-        <v>10.02</v>
+        <v>13.03</v>
       </c>
       <c r="J370" s="5" t="n"/>
       <c r="L370" s="14" t="n"/>
@@ -72188,7 +72234,7 @@
         </is>
       </c>
       <c r="F372" s="21" t="n">
-        <v>2502</v>
+        <v>2515</v>
       </c>
       <c r="J372" s="5" t="n"/>
       <c r="L372" s="20" t="inlineStr">
@@ -72205,7 +72251,7 @@
         </is>
       </c>
       <c r="P372" s="21" t="n">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="T372" s="5" t="n"/>
     </row>
@@ -72228,7 +72274,7 @@
         </is>
       </c>
       <c r="F374" s="21" t="n">
-        <v>5443</v>
+        <v>5456</v>
       </c>
       <c r="J374" s="5" t="n"/>
       <c r="L374" s="20" t="inlineStr">
@@ -72245,7 +72291,7 @@
         </is>
       </c>
       <c r="P374" s="21" t="n">
-        <v>5405</v>
+        <v>5409</v>
       </c>
       <c r="T374" s="5" t="n"/>
     </row>
@@ -72523,11 +72569,11 @@
       </c>
       <c r="Q387" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R387" s="16" t="n">
-        <v>12.02</v>
+        <v>22.01</v>
       </c>
       <c r="T387" s="5" t="n"/>
     </row>
@@ -78298,7 +78344,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -78710,19 +78756,19 @@
       </c>
       <c r="E139" s="17" t="inlineStr">
         <is>
-          <t>4,30,10</t>
+          <t>4,25,66</t>
         </is>
       </c>
       <c r="F139" s="7" t="n">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Gjøvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>21.05</v>
+        <v>23.07</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
@@ -78959,7 +79005,7 @@
         </is>
       </c>
       <c r="F148" s="21" t="n">
-        <v>3763</v>
+        <v>3792</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="20" t="inlineStr">
@@ -79098,11 +79144,11 @@
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Gjøvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>21.05</v>
+        <v>29.05</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -79503,7 +79549,7 @@
         </is>
       </c>
       <c r="F164" s="21" t="n">
-        <v>6896</v>
+        <v>6925</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="20" t="inlineStr">
@@ -80398,7 +80444,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -81880,7 +81926,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -83551,7 +83597,7 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Espen Grannes Pedersen</t>
+          <t>Martin Lilleberre Aunet</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
@@ -83861,11 +83907,11 @@
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>22.05</v>
+        <v>18.06</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -84426,18 +84472,18 @@
         <v>2005</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>54.95</v>
+        <v>54.86</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>4.03</v>
+        <v>29.07</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -84593,7 +84639,7 @@
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Martin Lilleberre Aunet</t>
+          <t>Espen Grannes Pedersen</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
@@ -84781,7 +84827,7 @@
         </is>
       </c>
       <c r="P36" s="21" t="n">
-        <v>3790</v>
+        <v>3794</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -84821,7 +84867,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>8430</v>
+        <v>8434</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 menn 3. div.xlsx
+++ b/output/Lagserien 2022 menn 3. div.xlsx
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>8972</v>
+        <v>9072</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>8648</v>
+        <v>8759</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
@@ -25367,11 +25367,11 @@
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>4.06</v>
+        <v>18.06</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -31044,11 +31044,11 @@
       </c>
       <c r="E55" s="17" t="inlineStr">
         <is>
-          <t>2,12,2</t>
+          <t>2,07,11</t>
         </is>
       </c>
       <c r="F55" s="7" t="n">
-        <v>494</v>
+        <v>566</v>
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         </is>
       </c>
       <c r="H55" s="16" t="n">
-        <v>24.05</v>
+        <v>4.08</v>
       </c>
       <c r="J55" s="5" t="n"/>
       <c r="L55" s="14" t="inlineStr">
@@ -31356,7 +31356,7 @@
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>24.05</v>
+        <v>8.06</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="n"/>
@@ -31371,7 +31371,7 @@
     <row r="62" ht="13" customHeight="1">
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
@@ -31383,7 +31383,7 @@
         <v>2004</v>
       </c>
       <c r="E62" s="15" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="F62" s="7" t="n">
         <v>367</v>
@@ -31394,7 +31394,7 @@
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>9.02</v>
+        <v>8.02</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="n"/>
@@ -31439,7 +31439,7 @@
         </is>
       </c>
       <c r="F64" s="21" t="n">
-        <v>5658</v>
+        <v>5730</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="20" t="inlineStr">
@@ -31559,30 +31559,30 @@
     <row r="69" ht="13" customHeight="1">
       <c r="B69" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Gollo Forberg</t>
+          <t>Bastian Asdal Ringsevjen</t>
         </is>
       </c>
       <c r="D69" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E69" s="15" t="n">
-        <v>1.55</v>
+        <v>8.27</v>
       </c>
       <c r="F69" s="7" t="n">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H69" s="16" t="n">
-        <v>23.07</v>
+        <v>4.08</v>
       </c>
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
@@ -31617,30 +31617,30 @@
     <row r="70" ht="13" customHeight="1">
       <c r="B70" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Bastian Asdal Ringsevjen</t>
+          <t>Sebastian Gollo Forberg</t>
         </is>
       </c>
       <c r="D70" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>8.32</v>
+        <v>1.55</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>8.06</v>
+        <v>23.07</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
@@ -31795,22 +31795,22 @@
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Hussein</t>
+          <t>Torolf Grimstad</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>2.5</v>
+        <v>8.43</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
@@ -31818,7 +31818,7 @@
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>8.02</v>
+        <v>4.08</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="n"/>
@@ -31833,30 +31833,30 @@
     <row r="74" ht="13" customHeight="1">
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Torolf Grimstad</t>
+          <t>Ibrahim Hussein</t>
         </is>
       </c>
       <c r="D74" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>8.460000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>30.03</v>
+        <v>9.02</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="n"/>
@@ -31871,30 +31871,30 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Torolf Grimstad</t>
+          <t>Bastian Asdal Ringsevjen</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>4.89</v>
+        <v>13.37</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>13.03</v>
+        <v>4.08</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="n"/>
@@ -31909,7 +31909,7 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
@@ -31921,18 +31921,18 @@
         <v>2006</v>
       </c>
       <c r="E76" s="15" t="n">
-        <v>10.09</v>
+        <v>4.89</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>24.05</v>
+        <v>13.03</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="n"/>
@@ -31977,7 +31977,7 @@
         </is>
       </c>
       <c r="F78" s="21" t="n">
-        <v>2990</v>
+        <v>3029</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="20" t="inlineStr">
@@ -32017,7 +32017,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>8648</v>
+        <v>8759</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="20" t="inlineStr">
@@ -72569,11 +72569,11 @@
       </c>
       <c r="Q387" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R387" s="16" t="n">
-        <v>22.01</v>
+        <v>12.02</v>
       </c>
       <c r="T387" s="5" t="n"/>
     </row>
@@ -84432,30 +84432,30 @@
     <row r="29" ht="13" customHeight="1">
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Thomas Reitan</t>
+          <t>Eirik Lindø</t>
         </is>
       </c>
       <c r="D29" s="7" t="n">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="E29" s="15" t="n">
-        <v>13.24</v>
+        <v>5.2</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H29" s="16" t="n">
-        <v>21.05</v>
+        <v>29.08</v>
       </c>
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
@@ -84495,25 +84495,25 @@
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Eirik Lindø</t>
+          <t>Thomas Reitan</t>
         </is>
       </c>
       <c r="D30" s="7" t="n">
-        <v>1994</v>
+        <v>2006</v>
       </c>
       <c r="E30" s="15" t="n">
-        <v>13.31</v>
+        <v>13.24</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>26.06</v>
+        <v>21.05</v>
       </c>
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
@@ -84548,7 +84548,7 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
@@ -84560,18 +84560,18 @@
         <v>1994</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>27.6</v>
+        <v>13.31</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>4.06</v>
+        <v>26.06</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
@@ -84606,7 +84606,7 @@
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
@@ -84618,18 +84618,18 @@
         <v>1994</v>
       </c>
       <c r="E32" s="15" t="n">
-        <v>8.6</v>
+        <v>27.6</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>5.02</v>
+        <v>4.06</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -84664,7 +84664,7 @@
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
@@ -84676,18 +84676,18 @@
         <v>1994</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>4.79</v>
+        <v>8.6</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>24.06</v>
+        <v>5.02</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -84810,7 +84810,7 @@
         </is>
       </c>
       <c r="F36" s="21" t="n">
-        <v>2856</v>
+        <v>2956</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="20" t="inlineStr">
@@ -84850,7 +84850,7 @@
         </is>
       </c>
       <c r="F38" s="21" t="n">
-        <v>8972</v>
+        <v>9072</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="20" t="inlineStr">

--- a/output/Lagserien 2022 menn 3. div.xlsx
+++ b/output/Lagserien 2022 menn 3. div.xlsx
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>13320</v>
+        <v>13323</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>12247</v>
+        <v>12335</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>9187</v>
+        <v>9207</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
@@ -1279,16 +1279,16 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Ørsta IL</t>
+          <t>Overhalla IL</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>(17/6)</t>
+          <t>(15/7)</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>9061</v>
+        <v>9083</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -1307,16 +1307,16 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Urædd Friidrett</t>
+          <t>Ørsta IL</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>(18/5)</t>
+          <t>(17/6)</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>8911</v>
+        <v>9061</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -1335,16 +1335,16 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IL Gular 3. lag</t>
+          <t>Urædd Friidrett</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>(13/8)</t>
+          <t>(18/5)</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>8873</v>
+        <v>8911</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -1363,16 +1363,16 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Rjukan Idrettslag</t>
+          <t>IL Gular 3. lag</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>(20/6)</t>
+          <t>(13/8)</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>8769</v>
+        <v>8873</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1391,25 +1391,25 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Overhalla IL</t>
+          <t>Gloppen Friidrettslag</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>(15/6)</t>
+          <t>(14/10)</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>8641</v>
+        <v>8812</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>(-)</t>
+          <t>(11/2d)</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
     </row>
@@ -1419,16 +1419,16 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Byåsen IL</t>
+          <t>Rjukan Idrettslag</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>(19/8)</t>
+          <t>(20/6)</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>8482</v>
+        <v>8769</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -1447,16 +1447,16 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Varegg IL</t>
+          <t>Byåsen IL</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>(14/8)</t>
+          <t>(19/8)</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>8376</v>
+        <v>8482</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -1475,16 +1475,16 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Ringerike Friidrettsklubb</t>
+          <t>Varegg IL</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(14/8)</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>8278</v>
+        <v>8414</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>(14/8)</t>
+          <t>(15/7)</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>8100</v>
+        <v>8372</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
@@ -1531,16 +1531,16 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Mjøsdalen IL</t>
+          <t>Ringerike Friidrettsklubb</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>(20/12)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>8042</v>
+        <v>8278</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -1559,16 +1559,16 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Trondheim Friidrett</t>
+          <t>Mjøsdalen IL</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>(14/5)</t>
+          <t>(20/12)</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>7965</v>
+        <v>8042</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1587,16 +1587,16 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>IK Grane</t>
+          <t>Trondheim Friidrett</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>(18/10)</t>
+          <t>(14/5)</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>7958</v>
+        <v>7965</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -1615,25 +1615,25 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Ås IL</t>
+          <t>IK Grane</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>(18/11)</t>
+          <t>(18/10)</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>7822</v>
+        <v>7958</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>(12/2d)</t>
+          <t>(-)</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -1643,20 +1643,20 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Gloppen Friidrettslag</t>
+          <t>Jølster IL</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>(12/8)</t>
+          <t>(13/8)</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>7693</v>
+        <v>7875</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>(11/2d)</t>
+          <t>(-)</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -1671,25 +1671,25 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL 3. lag</t>
+          <t>Ås IL</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>(12/6)</t>
+          <t>(18/11)</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>7645</v>
+        <v>7822</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>(-)</t>
+          <t>(12/2d)</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -1699,16 +1699,16 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Sortland Friidrettsklubb</t>
+          <t>IL i BUL 3. lag</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(12/6)</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>7613</v>
+        <v>7645</v>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -1727,16 +1727,16 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Gausdal FIK</t>
+          <t>Sortland Friidrettsklubb</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>(14/6)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>7565</v>
+        <v>7613</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -1755,16 +1755,16 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>GTI</t>
+          <t>Førde IL Friidrett</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>(19/9)</t>
+          <t>(16/12)</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>7559</v>
+        <v>7575</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
     </row>
@@ -1783,16 +1783,16 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Seljord IL</t>
+          <t>Gausdal FIK</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>(11/4)</t>
+          <t>(14/6)</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>7457</v>
+        <v>7565</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -1811,16 +1811,16 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>FIK Ren-Eng</t>
+          <t>GTI</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>(11/5)</t>
+          <t>(19/9)</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>7350</v>
+        <v>7564</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -1839,16 +1839,16 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Rindal IL</t>
+          <t>Seljord IL</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>(12/7)</t>
+          <t>(11/4)</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>7329</v>
+        <v>7457</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -1867,16 +1867,16 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Førde IL Friidrett</t>
+          <t>Rindal IL</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>(15/10)</t>
+          <t>(12/7)</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>7320</v>
+        <v>7371</v>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -1895,16 +1895,16 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>IL Runar</t>
+          <t>FIK Ren-Eng</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>(13/7)</t>
+          <t>(11/5)</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>7252</v>
+        <v>7350</v>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -1923,16 +1923,16 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>BUL-Tromsø Friidrett 2. lag</t>
+          <t>IL Runar</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>(20/11)</t>
+          <t>(13/7)</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>7228</v>
+        <v>7252</v>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -1951,25 +1951,25 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Sarpsborg IL</t>
+          <t>BUL-Tromsø Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>(20/9)</t>
+          <t>(20/11)</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>7225</v>
+        <v>7228</v>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>(14/2d)</t>
+          <t>(-)</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -1979,25 +1979,25 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Bøler IF</t>
+          <t>Sarpsborg IL</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>(17/8)</t>
+          <t>(20/9)</t>
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>7195</v>
+        <v>7225</v>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>(-)</t>
+          <t>(14/2d)</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -2007,16 +2007,16 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>FIL Aks-77</t>
+          <t>Bøler IF</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>(18/8)</t>
+          <t>(17/8)</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>7189</v>
+        <v>7195</v>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2035,16 +2035,16 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Sportsklubben Vidar 3. lag</t>
+          <t>FIL Aks-77</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>(12/10)</t>
+          <t>(18/8)</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>7118</v>
+        <v>7189</v>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2063,16 +2063,16 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL 3. lag</t>
+          <t>Sportsklubben Vidar 3. lag</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>(11/7)</t>
+          <t>(12/10)</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>7091</v>
+        <v>7118</v>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2091,16 +2091,16 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>IL Gneist 3. lag</t>
+          <t>Ullensaker/Kisa IL 3. lag</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>(13/8)</t>
+          <t>(11/7)</t>
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>7083</v>
+        <v>7091</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2119,16 +2119,16 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Jølster IL</t>
+          <t>IL Gneist 3. lag</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>(12/7)</t>
+          <t>(13/8)</t>
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>7036</v>
+        <v>7083</v>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2791,16 +2791,16 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Sandefjord Turn &amp; IF</t>
+          <t>Florø Turn og IF</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>(15/8)</t>
+          <t>(11/6)</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>5950</v>
+        <v>5990</v>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
     </row>
@@ -2819,16 +2819,16 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Bremnes IL</t>
+          <t>Sandefjord Turn &amp; IF</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>(16/6)</t>
+          <t>(15/8)</t>
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>5919</v>
+        <v>5950</v>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -2847,16 +2847,16 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Florø Turn og IF</t>
+          <t>Bremnes IL</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>(11/6)</t>
+          <t>(16/6)</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>5903</v>
+        <v>5919</v>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -7950,7 +7950,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -12319,7 +12319,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -12986,10 +12986,10 @@
         <v>1956</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>23.84</v>
+        <v>24.01</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>5.07</v>
+        <v>18.08</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -13205,7 +13205,7 @@
         </is>
       </c>
       <c r="P22" s="21" t="n">
-        <v>5167</v>
+        <v>5172</v>
       </c>
       <c r="T22" s="5" t="n"/>
     </row>
@@ -13831,7 +13831,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>7559</v>
+        <v>7564</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -15582,7 +15582,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -16541,30 +16541,30 @@
       <c r="J27" s="5" t="n"/>
       <c r="L27" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M27" s="7" t="inlineStr">
         <is>
-          <t>Thomas Mardal</t>
+          <t>Håkon Hjelle Roset</t>
         </is>
       </c>
       <c r="N27" s="7" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="O27" s="15" t="n">
-        <v>15.67</v>
+        <v>56.59</v>
       </c>
       <c r="P27" s="7" t="n">
         <v>837</v>
       </c>
       <c r="Q27" s="7" t="inlineStr">
         <is>
-          <t>Uppsala/SWE</t>
+          <t>Bålsta/SWE</t>
         </is>
       </c>
       <c r="R27" s="16" t="n">
-        <v>13.02</v>
+        <v>14.05</v>
       </c>
       <c r="T27" s="5" t="n"/>
     </row>
@@ -16601,30 +16601,30 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Håkon Hjelle Roset</t>
+          <t>Thomas Mardal</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>56.59</v>
+        <v>15.67</v>
       </c>
       <c r="P28" s="7" t="n">
         <v>837</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Bålsta/SWE</t>
+          <t>Uppsala/SWE</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>14.05</v>
+        <v>13.02</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -16661,32 +16661,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Bendik Vereide</t>
+          <t>Steinar Kleppe</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O29" s="17" t="inlineStr">
-        <is>
-          <t>10,02,97</t>
-        </is>
+        <v>1988</v>
+      </c>
+      <c r="O29" s="15" t="n">
+        <v>49.78</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>481</v>
+        <v>749</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>2.08</v>
+        <v>20.08</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -16719,13 +16717,35 @@
         <v>13.08</v>
       </c>
       <c r="J30" s="5" t="n"/>
-      <c r="L30" s="14" t="n"/>
-      <c r="M30" s="7" t="n"/>
-      <c r="N30" s="7" t="n"/>
-      <c r="O30" s="7" t="n"/>
-      <c r="P30" s="7" t="n"/>
-      <c r="Q30" s="7" t="n"/>
-      <c r="R30" s="18" t="n"/>
+      <c r="L30" s="14" t="inlineStr">
+        <is>
+          <t>3000m</t>
+        </is>
+      </c>
+      <c r="M30" s="7" t="inlineStr">
+        <is>
+          <t>Bendik Vereide</t>
+        </is>
+      </c>
+      <c r="N30" s="7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="O30" s="17" t="inlineStr">
+        <is>
+          <t>10,02,97</t>
+        </is>
+      </c>
+      <c r="P30" s="7" t="n">
+        <v>481</v>
+      </c>
+      <c r="Q30" s="7" t="inlineStr">
+        <is>
+          <t>Jølster</t>
+        </is>
+      </c>
+      <c r="R30" s="16" t="n">
+        <v>2.08</v>
+      </c>
       <c r="T30" s="5" t="n"/>
     </row>
     <row r="31" ht="13" customHeight="1">
@@ -16757,13 +16777,35 @@
         <v>21.05</v>
       </c>
       <c r="J31" s="5" t="n"/>
-      <c r="L31" s="14" t="n"/>
-      <c r="M31" s="7" t="n"/>
-      <c r="N31" s="7" t="n"/>
-      <c r="O31" s="7" t="n"/>
-      <c r="P31" s="7" t="n"/>
-      <c r="Q31" s="7" t="n"/>
-      <c r="R31" s="18" t="n"/>
+      <c r="L31" s="14" t="inlineStr">
+        <is>
+          <t>800m</t>
+        </is>
+      </c>
+      <c r="M31" s="7" t="inlineStr">
+        <is>
+          <t>Jon R. Hauge</t>
+        </is>
+      </c>
+      <c r="N31" s="7" t="n">
+        <v>1974</v>
+      </c>
+      <c r="O31" s="17" t="inlineStr">
+        <is>
+          <t>2,22,72</t>
+        </is>
+      </c>
+      <c r="P31" s="7" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q31" s="7" t="inlineStr">
+        <is>
+          <t>Førde</t>
+        </is>
+      </c>
+      <c r="R31" s="16" t="n">
+        <v>20.08</v>
+      </c>
       <c r="T31" s="5" t="n"/>
     </row>
     <row r="32" ht="13" customHeight="1">
@@ -16882,7 +16924,7 @@
         </is>
       </c>
       <c r="M36" s="21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O36" s="20" t="inlineStr">
         <is>
@@ -16890,7 +16932,7 @@
         </is>
       </c>
       <c r="P36" s="21" t="n">
-        <v>2155</v>
+        <v>3274</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -16922,7 +16964,7 @@
         </is>
       </c>
       <c r="M38" s="21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O38" s="20" t="inlineStr">
         <is>
@@ -16930,7 +16972,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>7693</v>
+        <v>8812</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -16954,7 +16996,7 @@
         </is>
       </c>
       <c r="M40" s="21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T40" s="5" t="n"/>
     </row>
@@ -17000,7 +17042,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -17014,7 +17056,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -17026,7 +17068,7 @@
       </c>
       <c r="C45" s="7" t="inlineStr">
         <is>
-          <t>Førde IL Friidrett</t>
+          <t>Jølster IL</t>
         </is>
       </c>
       <c r="J45" s="5" t="n"/>
@@ -17037,7 +17079,7 @@
       </c>
       <c r="M45" s="7" t="inlineStr">
         <is>
-          <t>Jølster IL</t>
+          <t>Førde IL Friidrett</t>
         </is>
       </c>
       <c r="T45" s="5" t="n"/>
@@ -17166,25 +17208,25 @@
       </c>
       <c r="C51" s="7" t="inlineStr">
         <is>
-          <t>Jøran Laukeland</t>
+          <t>Kajus Degutis</t>
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>1977</v>
+        <v>2008</v>
       </c>
       <c r="E51" s="15" t="n">
-        <v>7.57</v>
+        <v>8.83</v>
       </c>
       <c r="F51" s="7" t="n">
-        <v>635</v>
+        <v>267</v>
       </c>
       <c r="G51" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Jølster</t>
         </is>
       </c>
       <c r="H51" s="16" t="n">
-        <v>27.03</v>
+        <v>6.06</v>
       </c>
       <c r="J51" s="5" t="n"/>
       <c r="L51" s="14" t="inlineStr">
@@ -17194,25 +17236,25 @@
       </c>
       <c r="M51" s="7" t="inlineStr">
         <is>
-          <t>Kajus Degutis</t>
+          <t>Jøran Laukeland</t>
         </is>
       </c>
       <c r="N51" s="7" t="n">
-        <v>2008</v>
+        <v>1977</v>
       </c>
       <c r="O51" s="15" t="n">
-        <v>8.83</v>
+        <v>7.57</v>
       </c>
       <c r="P51" s="7" t="n">
-        <v>267</v>
+        <v>635</v>
       </c>
       <c r="Q51" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R51" s="16" t="n">
-        <v>6.06</v>
+        <v>27.03</v>
       </c>
       <c r="T51" s="5" t="n"/>
     </row>
@@ -17224,17 +17266,17 @@
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>Jøran Laukeland</t>
+          <t>Deividas Burkauskas</t>
         </is>
       </c>
       <c r="D52" s="7" t="n">
-        <v>1977</v>
+        <v>2004</v>
       </c>
       <c r="E52" s="15" t="n">
-        <v>11.82</v>
+        <v>11.45</v>
       </c>
       <c r="F52" s="7" t="n">
-        <v>648</v>
+        <v>732</v>
       </c>
       <c r="G52" s="7" t="inlineStr">
         <is>
@@ -17252,17 +17294,17 @@
       </c>
       <c r="M52" s="7" t="inlineStr">
         <is>
-          <t>Deividas Burkauskas</t>
+          <t>Jøran Laukeland</t>
         </is>
       </c>
       <c r="N52" s="7" t="n">
-        <v>2004</v>
+        <v>1977</v>
       </c>
       <c r="O52" s="15" t="n">
-        <v>11.45</v>
+        <v>11.82</v>
       </c>
       <c r="P52" s="7" t="n">
-        <v>732</v>
+        <v>648</v>
       </c>
       <c r="Q52" s="7" t="inlineStr">
         <is>
@@ -17282,25 +17324,25 @@
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>Jøran Laukeland</t>
+          <t>Emanuel Aarseth</t>
         </is>
       </c>
       <c r="D53" s="7" t="n">
-        <v>1977</v>
+        <v>2009</v>
       </c>
       <c r="E53" s="15" t="n">
-        <v>24.13</v>
+        <v>30.28</v>
       </c>
       <c r="F53" s="7" t="n">
-        <v>635</v>
+        <v>203</v>
       </c>
       <c r="G53" s="7" t="inlineStr">
         <is>
-          <t>Tampere/FIN</t>
+          <t>Jølster</t>
         </is>
       </c>
       <c r="H53" s="16" t="n">
-        <v>3.07</v>
+        <v>10.05</v>
       </c>
       <c r="J53" s="5" t="n"/>
       <c r="L53" s="14" t="inlineStr">
@@ -17310,57 +17352,55 @@
       </c>
       <c r="M53" s="7" t="inlineStr">
         <is>
-          <t>Emanuel Aarseth</t>
+          <t>Jøran Laukeland</t>
         </is>
       </c>
       <c r="N53" s="7" t="n">
-        <v>2009</v>
+        <v>1977</v>
       </c>
       <c r="O53" s="15" t="n">
-        <v>30.28</v>
+        <v>24.13</v>
       </c>
       <c r="P53" s="7" t="n">
-        <v>203</v>
+        <v>635</v>
       </c>
       <c r="Q53" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Tampere/FIN</t>
         </is>
       </c>
       <c r="R53" s="16" t="n">
-        <v>10.05</v>
+        <v>3.07</v>
       </c>
       <c r="T53" s="5" t="n"/>
     </row>
     <row r="54" ht="13" customHeight="1">
       <c r="B54" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>David Engesæter</t>
+          <t>Åsmund Sunde Førde</t>
         </is>
       </c>
       <c r="D54" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E54" s="17" t="inlineStr">
-        <is>
-          <t>2,11,53</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E54" s="15" t="n">
+        <v>55.53</v>
       </c>
       <c r="F54" s="7" t="n">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="H54" s="16" t="n">
-        <v>6.06</v>
+        <v>20.08</v>
       </c>
       <c r="J54" s="5" t="n"/>
       <c r="L54" s="14" t="inlineStr">
@@ -17370,19 +17410,19 @@
       </c>
       <c r="M54" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Sunde Førde</t>
+          <t>David Engesæter</t>
         </is>
       </c>
       <c r="N54" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O54" s="17" t="inlineStr">
         <is>
-          <t>1,57,51</t>
+          <t>2,11,53</t>
         </is>
       </c>
       <c r="P54" s="7" t="n">
-        <v>738</v>
+        <v>503</v>
       </c>
       <c r="Q54" s="7" t="inlineStr">
         <is>
@@ -17397,32 +17437,32 @@
     <row r="55" ht="13" customHeight="1">
       <c r="B55" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Atle Skrede</t>
+          <t>Åsmund Sunde Førde</t>
         </is>
       </c>
       <c r="D55" s="7" t="n">
-        <v>1973</v>
+        <v>2007</v>
       </c>
       <c r="E55" s="17" t="inlineStr">
         <is>
-          <t>5,11,62</t>
+          <t>1,57,51</t>
         </is>
       </c>
       <c r="F55" s="7" t="n">
-        <v>293</v>
+        <v>738</v>
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
-          <t>Førde</t>
+          <t>Jølster</t>
         </is>
       </c>
       <c r="H55" s="16" t="n">
-        <v>29.06</v>
+        <v>6.06</v>
       </c>
       <c r="J55" s="5" t="n"/>
       <c r="L55" s="14" t="inlineStr">
@@ -17432,19 +17472,19 @@
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>Øystein Støfring</t>
+          <t>Atle Skrede</t>
         </is>
       </c>
       <c r="N55" s="7" t="n">
-        <v>2001</v>
+        <v>1973</v>
       </c>
       <c r="O55" s="17" t="inlineStr">
         <is>
-          <t>4,00,83</t>
+          <t>5,11,62</t>
         </is>
       </c>
       <c r="P55" s="7" t="n">
-        <v>752</v>
+        <v>293</v>
       </c>
       <c r="Q55" s="7" t="inlineStr">
         <is>
@@ -17459,32 +17499,32 @@
     <row r="56" ht="13" customHeight="1">
       <c r="B56" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Aksel Bjørkhaug</t>
+          <t>Matias Andersen Førde</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="E56" s="17" t="inlineStr">
         <is>
-          <t>9,09,69</t>
+          <t>3,51,51</t>
         </is>
       </c>
       <c r="F56" s="7" t="n">
-        <v>652</v>
+        <v>847</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Førde</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>29.06</v>
+        <v>23.07</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -17494,202 +17534,224 @@
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Eivind Øygard</t>
+          <t>Aksel Bjørkhaug</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>1992</v>
+        <v>2005</v>
       </c>
       <c r="O56" s="17" t="inlineStr">
         <is>
-          <t>8,13,76</t>
+          <t>9,09,69</t>
         </is>
       </c>
       <c r="P56" s="7" t="n">
-        <v>889</v>
+        <v>652</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>5.08</v>
+        <v>29.06</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
     <row r="57" ht="13" customHeight="1">
       <c r="B57" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Roger Øye Pollen</t>
+          <t>Eivind Øygard</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E57" s="17" t="inlineStr">
         <is>
-          <t>14,55,47</t>
+          <t>8,13,76</t>
         </is>
       </c>
       <c r="F57" s="7" t="n">
-        <v>782</v>
+        <v>889</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>21.05</v>
+        <v>5.08</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M57" s="7" t="inlineStr">
         <is>
-          <t>Kajus Degutis</t>
+          <t>Roger Øye Pollen</t>
         </is>
       </c>
       <c r="N57" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O57" s="15" t="n">
-        <v>4.22</v>
+        <v>1994</v>
+      </c>
+      <c r="O57" s="17" t="inlineStr">
+        <is>
+          <t>14,55,47</t>
+        </is>
       </c>
       <c r="P57" s="7" t="n">
-        <v>176</v>
+        <v>782</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>6.06</v>
+        <v>21.05</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
     <row r="58" ht="13" customHeight="1">
       <c r="B58" s="14" t="inlineStr">
         <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="C58" s="7" t="inlineStr">
+        <is>
+          <t>Kajus Degutis</t>
+        </is>
+      </c>
+      <c r="D58" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E58" s="15" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F58" s="7" t="n">
+        <v>176</v>
+      </c>
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>Jølster</t>
+        </is>
+      </c>
+      <c r="H58" s="16" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J58" s="5" t="n"/>
+      <c r="L58" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M58" s="7" t="inlineStr">
+        <is>
+          <t>Are Gunnar Korsvoll</t>
+        </is>
+      </c>
+      <c r="N58" s="7" t="n">
+        <v>1979</v>
+      </c>
+      <c r="O58" s="15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P58" s="7" t="n">
+        <v>233</v>
+      </c>
+      <c r="Q58" s="7" t="inlineStr">
+        <is>
+          <t>Førde</t>
+        </is>
+      </c>
+      <c r="R58" s="16" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="T58" s="5" t="n"/>
+    </row>
+    <row r="59" ht="13" customHeight="1">
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="7" t="n"/>
+      <c r="D59" s="7" t="n"/>
+      <c r="E59" s="7" t="n"/>
+      <c r="F59" s="7" t="n"/>
+      <c r="G59" s="7" t="n"/>
+      <c r="H59" s="18" t="n"/>
+      <c r="J59" s="5" t="n"/>
+      <c r="L59" s="14" t="inlineStr">
+        <is>
           <t>Tresteg</t>
         </is>
       </c>
-      <c r="C58" s="7" t="inlineStr">
+      <c r="M59" s="7" t="inlineStr">
         <is>
           <t>Arne Tefre</t>
         </is>
       </c>
-      <c r="D58" s="7" t="n">
+      <c r="N59" s="7" t="n">
         <v>1955</v>
       </c>
-      <c r="E58" s="15" t="n">
+      <c r="O59" s="15" t="n">
         <v>11.07</v>
       </c>
-      <c r="F58" s="7" t="n">
+      <c r="P59" s="7" t="n">
         <v>455</v>
       </c>
-      <c r="G58" s="7" t="inlineStr">
+      <c r="Q59" s="7" t="inlineStr">
         <is>
           <t>Tampere/FIN</t>
         </is>
       </c>
-      <c r="H58" s="16" t="n">
+      <c r="R59" s="16" t="n">
         <v>10.07</v>
       </c>
-      <c r="J58" s="5" t="n"/>
-      <c r="L58" s="14" t="n"/>
-      <c r="M58" s="7" t="n"/>
-      <c r="N58" s="7" t="n"/>
-      <c r="O58" s="7" t="n"/>
-      <c r="P58" s="7" t="n"/>
-      <c r="Q58" s="7" t="n"/>
-      <c r="R58" s="18" t="n"/>
-      <c r="T58" s="5" t="n"/>
-    </row>
-    <row r="59" ht="13" customHeight="1">
-      <c r="B59" s="14" t="inlineStr">
+      <c r="T59" s="5" t="n"/>
+    </row>
+    <row r="60" ht="13" customHeight="1">
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="7" t="n"/>
+      <c r="D60" s="7" t="n"/>
+      <c r="E60" s="7" t="n"/>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="7" t="n"/>
+      <c r="H60" s="18" t="n"/>
+      <c r="J60" s="5" t="n"/>
+      <c r="L60" s="14" t="inlineStr">
         <is>
           <t>Lengde u.t</t>
         </is>
       </c>
-      <c r="C59" s="7" t="inlineStr">
+      <c r="M60" s="7" t="inlineStr">
         <is>
           <t>Yngve Kversøy</t>
         </is>
       </c>
-      <c r="D59" s="7" t="n">
+      <c r="N60" s="7" t="n">
         <v>1978</v>
       </c>
-      <c r="E59" s="15" t="n">
+      <c r="O60" s="15" t="n">
         <v>2.3</v>
       </c>
-      <c r="F59" s="7" t="n">
+      <c r="P60" s="7" t="n">
         <v>180</v>
       </c>
-      <c r="G59" s="7" t="inlineStr">
+      <c r="Q60" s="7" t="inlineStr">
         <is>
           <t>Grimstad</t>
         </is>
       </c>
-      <c r="H59" s="16" t="n">
+      <c r="R60" s="16" t="n">
         <v>26.03</v>
       </c>
-      <c r="J59" s="5" t="n"/>
-      <c r="L59" s="14" t="n"/>
-      <c r="M59" s="7" t="n"/>
-      <c r="N59" s="7" t="n"/>
-      <c r="O59" s="7" t="n"/>
-      <c r="P59" s="7" t="n"/>
-      <c r="Q59" s="7" t="n"/>
-      <c r="R59" s="18" t="n"/>
-      <c r="T59" s="5" t="n"/>
-    </row>
-    <row r="60" ht="13" customHeight="1">
-      <c r="B60" s="14" t="inlineStr">
-        <is>
-          <t>Kule</t>
-        </is>
-      </c>
-      <c r="C60" s="7" t="inlineStr">
-        <is>
-          <t>Yngve Kversøy</t>
-        </is>
-      </c>
-      <c r="D60" s="7" t="n">
-        <v>1978</v>
-      </c>
-      <c r="E60" s="15" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="F60" s="7" t="n">
-        <v>352</v>
-      </c>
-      <c r="G60" s="7" t="inlineStr">
-        <is>
-          <t>Grimstad</t>
-        </is>
-      </c>
-      <c r="H60" s="16" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="J60" s="5" t="n"/>
-      <c r="L60" s="14" t="n"/>
-      <c r="M60" s="7" t="n"/>
-      <c r="N60" s="7" t="n"/>
-      <c r="O60" s="7" t="n"/>
-      <c r="P60" s="7" t="n"/>
-      <c r="Q60" s="7" t="n"/>
-      <c r="R60" s="18" t="n"/>
       <c r="T60" s="5" t="n"/>
     </row>
     <row r="61" ht="13" customHeight="1">
@@ -17701,13 +17763,33 @@
       <c r="G61" s="7" t="n"/>
       <c r="H61" s="18" t="n"/>
       <c r="J61" s="5" t="n"/>
-      <c r="L61" s="14" t="n"/>
-      <c r="M61" s="7" t="n"/>
-      <c r="N61" s="7" t="n"/>
-      <c r="O61" s="7" t="n"/>
-      <c r="P61" s="7" t="n"/>
-      <c r="Q61" s="7" t="n"/>
-      <c r="R61" s="18" t="n"/>
+      <c r="L61" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M61" s="7" t="inlineStr">
+        <is>
+          <t>Yngve Kversøy</t>
+        </is>
+      </c>
+      <c r="N61" s="7" t="n">
+        <v>1978</v>
+      </c>
+      <c r="O61" s="15" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="P61" s="7" t="n">
+        <v>352</v>
+      </c>
+      <c r="Q61" s="7" t="inlineStr">
+        <is>
+          <t>Grimstad</t>
+        </is>
+      </c>
+      <c r="R61" s="16" t="n">
+        <v>27.03</v>
+      </c>
       <c r="T61" s="5" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1">
@@ -17753,7 +17835,7 @@
         </is>
       </c>
       <c r="C64" s="21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E64" s="20" t="inlineStr">
         <is>
@@ -17761,7 +17843,7 @@
         </is>
       </c>
       <c r="F64" s="21" t="n">
-        <v>5135</v>
+        <v>4399</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="20" t="inlineStr">
@@ -17770,7 +17852,7 @@
         </is>
       </c>
       <c r="M64" s="21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O64" s="20" t="inlineStr">
         <is>
@@ -17778,7 +17860,7 @@
         </is>
       </c>
       <c r="P64" s="21" t="n">
-        <v>3757</v>
+        <v>5368</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -17881,22 +17963,24 @@
     <row r="69" ht="13" customHeight="1">
       <c r="B69" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Ola Aasen</t>
+          <t>Øystein Støfring</t>
         </is>
       </c>
       <c r="D69" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E69" s="15" t="n">
-        <v>8.07</v>
+        <v>2001</v>
+      </c>
+      <c r="E69" s="17" t="inlineStr">
+        <is>
+          <t>4,00,83</t>
+        </is>
       </c>
       <c r="F69" s="7" t="n">
-        <v>474</v>
+        <v>752</v>
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
@@ -17904,283 +17988,281 @@
         </is>
       </c>
       <c r="H69" s="16" t="n">
-        <v>11.06</v>
+        <v>29.06</v>
       </c>
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Øystein Støfring</t>
+          <t>Ola Aasen</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O69" s="17" t="inlineStr">
-        <is>
-          <t>1,57,72</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O69" s="15" t="n">
+        <v>8.07</v>
       </c>
       <c r="P69" s="7" t="n">
-        <v>733</v>
+        <v>474</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>6.06</v>
+        <v>11.06</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1">
       <c r="B70" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Stian Vårdal Helle</t>
+          <t>Øystein Støfring</t>
         </is>
       </c>
       <c r="D70" s="7" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E70" s="17" t="inlineStr">
         <is>
-          <t>10,14,23</t>
+          <t>1,57,72</t>
         </is>
       </c>
       <c r="F70" s="7" t="n">
-        <v>449</v>
+        <v>733</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
-          <t>Førde</t>
+          <t>Jølster</t>
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>29.06</v>
+        <v>6.06</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Sunde Førde</t>
+          <t>Stian Vårdal Helle</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O70" s="17" t="inlineStr">
         <is>
-          <t>4,09,95</t>
+          <t>10,14,23</t>
         </is>
       </c>
       <c r="P70" s="7" t="n">
-        <v>672</v>
+        <v>449</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>28.05</v>
+        <v>29.06</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1">
       <c r="B71" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Ludvig Rørvik</t>
+          <t>Åsmund Sunde Førde</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E71" s="17" t="inlineStr">
         <is>
-          <t>2,16,56</t>
+          <t>4,09,95</t>
         </is>
       </c>
       <c r="F71" s="7" t="n">
-        <v>440</v>
+        <v>672</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H71" s="16" t="n">
-        <v>6.06</v>
+        <v>28.05</v>
       </c>
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Sunde Førde</t>
+          <t>Ludvig Rørvik</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O71" s="17" t="inlineStr">
         <is>
-          <t>9,07,59</t>
+          <t>2,16,56</t>
         </is>
       </c>
       <c r="P71" s="7" t="n">
-        <v>660</v>
+        <v>440</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jølster</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>29.05</v>
+        <v>6.06</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1">
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>David Engesæter</t>
+          <t>Åsmund Sunde Førde</t>
         </is>
       </c>
       <c r="D72" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E72" s="15" t="n">
-        <v>8.27</v>
+        <v>2007</v>
+      </c>
+      <c r="E72" s="17" t="inlineStr">
+        <is>
+          <t>9,07,59</t>
+        </is>
       </c>
       <c r="F72" s="7" t="n">
-        <v>416</v>
+        <v>660</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>6.06</v>
+        <v>29.05</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Sandal</t>
+          <t>Øyvind Aastad Kjøs</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>2005</v>
+        <v>1984</v>
       </c>
       <c r="O72" s="17" t="inlineStr">
         <is>
-          <t>2,01,45</t>
+          <t>10,22,13</t>
         </is>
       </c>
       <c r="P72" s="7" t="n">
-        <v>659</v>
+        <v>428</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>6.06</v>
+        <v>20.08</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Ludvig Rørvik</t>
+          <t>Kristoffer Sandal</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E73" s="17" t="inlineStr">
         <is>
-          <t>10,30,49</t>
+          <t>2,01,45</t>
         </is>
       </c>
       <c r="F73" s="7" t="n">
-        <v>406</v>
+        <v>659</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>Førde</t>
+          <t>Jølster</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>29.06</v>
+        <v>6.06</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Sandal</t>
+          <t>David Engesæter</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O73" s="17" t="inlineStr">
-        <is>
-          <t>4,25,52</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O73" s="15" t="n">
+        <v>8.27</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>555</v>
+        <v>416</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jølster</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>4.03</v>
+        <v>6.06</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
@@ -18271,7 +18353,7 @@
         </is>
       </c>
       <c r="F78" s="21" t="n">
-        <v>2185</v>
+        <v>3476</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="20" t="inlineStr">
@@ -18288,7 +18370,7 @@
         </is>
       </c>
       <c r="P78" s="21" t="n">
-        <v>3279</v>
+        <v>2207</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -18303,7 +18385,7 @@
         </is>
       </c>
       <c r="C80" s="21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E80" s="20" t="inlineStr">
         <is>
@@ -18311,7 +18393,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>7320</v>
+        <v>7875</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="20" t="inlineStr">
@@ -18320,7 +18402,7 @@
         </is>
       </c>
       <c r="M80" s="21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O80" s="20" t="inlineStr">
         <is>
@@ -18328,7 +18410,7 @@
         </is>
       </c>
       <c r="P80" s="21" t="n">
-        <v>7036</v>
+        <v>7575</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -18343,7 +18425,7 @@
         </is>
       </c>
       <c r="C82" s="21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="20" t="inlineStr">
@@ -18352,7 +18434,7 @@
         </is>
       </c>
       <c r="M82" s="21" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -18397,7 +18479,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J86" s="5" t="n"/>
     </row>
@@ -18589,11 +18671,11 @@
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>6.06</v>
+        <v>18.06</v>
       </c>
       <c r="J96" s="5" t="n"/>
     </row>
@@ -18642,18 +18724,18 @@
         <v>2008</v>
       </c>
       <c r="E98" s="15" t="n">
-        <v>11.53</v>
+        <v>12.31</v>
       </c>
       <c r="F98" s="7" t="n">
-        <v>507</v>
+        <v>594</v>
       </c>
       <c r="G98" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Florø</t>
         </is>
       </c>
       <c r="H98" s="16" t="n">
-        <v>19.02</v>
+        <v>17.08</v>
       </c>
       <c r="J98" s="5" t="n"/>
     </row>
@@ -18742,7 +18824,7 @@
         </is>
       </c>
       <c r="F106" s="21" t="n">
-        <v>3647</v>
+        <v>3734</v>
       </c>
       <c r="J106" s="5" t="n"/>
     </row>
@@ -19025,7 +19107,7 @@
         </is>
       </c>
       <c r="F122" s="21" t="n">
-        <v>5903</v>
+        <v>5990</v>
       </c>
       <c r="J122" s="5" t="n"/>
     </row>
@@ -20764,7 +20846,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -20778,7 +20860,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -22256,7 +22338,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -22614,19 +22696,19 @@
       </c>
       <c r="E96" s="17" t="inlineStr">
         <is>
-          <t>8,53,99</t>
+          <t>8,43,5</t>
         </is>
       </c>
       <c r="F96" s="7" t="n">
-        <v>712</v>
+        <v>754</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>3.05</v>
+        <v>17.08</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -22923,7 +23005,7 @@
         </is>
       </c>
       <c r="F106" s="21" t="n">
-        <v>4464</v>
+        <v>4506</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="20" t="inlineStr">
@@ -23455,7 +23537,7 @@
         </is>
       </c>
       <c r="F122" s="21" t="n">
-        <v>7329</v>
+        <v>7371</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="20" t="inlineStr">
@@ -24771,7 +24853,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -26365,7 +26447,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -26379,7 +26461,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -29246,7 +29328,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -29580,19 +29662,19 @@
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>2,00,14</t>
+          <t>2,00,01</t>
         </is>
       </c>
       <c r="F12" s="7" t="n">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>20.07</v>
+        <v>9.08</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -29724,11 +29806,11 @@
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Amandus Undeberget</t>
+          <t>Petter Undeberget</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O14" s="15" t="n">
         <v>1.4</v>
@@ -30073,7 +30155,7 @@
         </is>
       </c>
       <c r="F22" s="21" t="n">
-        <v>8137</v>
+        <v>8140</v>
       </c>
       <c r="J22" s="5" t="n"/>
       <c r="L22" s="20" t="inlineStr">
@@ -30586,11 +30668,11 @@
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Petter Undeberget</t>
+          <t>Amandus Undeberget</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O33" s="15" t="n">
         <v>1.4</v>
@@ -30630,11 +30712,11 @@
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>5.03</v>
+        <v>11.06</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -30739,7 +30821,7 @@
         </is>
       </c>
       <c r="F38" s="21" t="n">
-        <v>13320</v>
+        <v>13323</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="20" t="inlineStr">
@@ -30826,7 +30908,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -32369,7 +32451,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -33867,7 +33949,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -35278,7 +35360,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -39835,7 +39917,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -43815,7 +43897,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -45337,7 +45419,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -50934,7 +51016,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -54865,11 +54947,11 @@
       </c>
       <c r="G27" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H27" s="16" t="n">
-        <v>24.06</v>
+        <v>18.06</v>
       </c>
       <c r="J27" s="5" t="n"/>
       <c r="L27" s="14" t="inlineStr">
@@ -55469,7 +55551,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -55483,7 +55565,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -56574,24 +56656,24 @@
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Tage Augustson</t>
+          <t>Børge Bjørsvik Larsson</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="O72" s="17" t="inlineStr">
         <is>
-          <t>15,52,04</t>
+          <t>4,09,88</t>
         </is>
       </c>
       <c r="P72" s="7" t="n">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
@@ -56599,7 +56681,7 @@
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>1.08</v>
+        <v>15.08</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
@@ -56636,32 +56718,32 @@
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Rusten Lundberg</t>
+          <t>Tage Augustson</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="O73" s="17" t="inlineStr">
         <is>
-          <t>9,14,67</t>
+          <t>15,52,04</t>
         </is>
       </c>
       <c r="P73" s="7" t="n">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>2.06</v>
+        <v>1.08</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
@@ -56769,7 +56851,7 @@
         </is>
       </c>
       <c r="P78" s="21" t="n">
-        <v>3352</v>
+        <v>3390</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -56809,7 +56891,7 @@
         </is>
       </c>
       <c r="P80" s="21" t="n">
-        <v>8376</v>
+        <v>8414</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -56879,7 +56961,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -56893,7 +56975,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -58491,7 +58573,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -59871,7 +59953,7 @@
         </is>
       </c>
       <c r="P170" s="8" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -62920,18 +63002,18 @@
         <v>2000</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>11.73</v>
+        <v>12.97</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>577</v>
+        <v>665</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>6.03</v>
+        <v>18.08</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -62985,7 +63067,7 @@
         </is>
       </c>
       <c r="P22" s="21" t="n">
-        <v>7629</v>
+        <v>7717</v>
       </c>
       <c r="T22" s="5" t="n"/>
     </row>
@@ -63619,7 +63701,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>12247</v>
+        <v>12335</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -65327,7 +65409,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -65532,24 +65614,22 @@
     <row r="94" ht="13" customHeight="1">
       <c r="B94" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
         <is>
-          <t>William Tømterud</t>
+          <t>Jacob Gulbrandsen-Rognstad</t>
         </is>
       </c>
       <c r="D94" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E94" s="17" t="inlineStr">
-        <is>
-          <t>2,11,32</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E94" s="15" t="n">
+        <v>30.96</v>
       </c>
       <c r="F94" s="7" t="n">
-        <v>506</v>
+        <v>167</v>
       </c>
       <c r="G94" s="7" t="inlineStr">
         <is>
@@ -65557,7 +65637,7 @@
         </is>
       </c>
       <c r="H94" s="16" t="n">
-        <v>22.06</v>
+        <v>17.08</v>
       </c>
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
@@ -65592,32 +65672,32 @@
     <row r="95" ht="13" customHeight="1">
       <c r="B95" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Magnus Tuv Myhre</t>
+          <t>William Tømterud</t>
         </is>
       </c>
       <c r="D95" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E95" s="17" t="inlineStr">
         <is>
-          <t>3,42,04</t>
+          <t>2,11,32</t>
         </is>
       </c>
       <c r="F95" s="7" t="n">
-        <v>959</v>
+        <v>506</v>
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>2.06</v>
+        <v>22.06</v>
       </c>
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
@@ -65652,7 +65732,7 @@
     <row r="96" ht="13" customHeight="1">
       <c r="B96" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
@@ -65665,19 +65745,19 @@
       </c>
       <c r="E96" s="17" t="inlineStr">
         <is>
-          <t>7,48,07</t>
+          <t>3,42,04</t>
         </is>
       </c>
       <c r="F96" s="7" t="n">
-        <v>1016</v>
+        <v>959</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>8.06</v>
+        <v>2.06</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -65712,7 +65792,7 @@
     <row r="97" ht="13" customHeight="1">
       <c r="B97" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C97" s="7" t="inlineStr">
@@ -65725,19 +65805,19 @@
       </c>
       <c r="E97" s="17" t="inlineStr">
         <is>
-          <t>13,27,06</t>
+          <t>7,48,07</t>
         </is>
       </c>
       <c r="F97" s="7" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="G97" s="7" t="inlineStr">
         <is>
-          <t>Stockholm/SWE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H97" s="16" t="n">
-        <v>21.05</v>
+        <v>8.06</v>
       </c>
       <c r="J97" s="5" t="n"/>
       <c r="L97" s="14" t="inlineStr">
@@ -65774,7 +65854,7 @@
     <row r="98" ht="13" customHeight="1">
       <c r="B98" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C98" s="7" t="inlineStr">
@@ -65787,19 +65867,19 @@
       </c>
       <c r="E98" s="17" t="inlineStr">
         <is>
-          <t>28,04,69</t>
+          <t>13,27,06</t>
         </is>
       </c>
       <c r="F98" s="7" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="G98" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stockholm/SWE</t>
         </is>
       </c>
       <c r="H98" s="16" t="n">
-        <v>13.04</v>
+        <v>21.05</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="14" t="inlineStr">
@@ -65836,30 +65916,32 @@
     <row r="99" ht="13" customHeight="1">
       <c r="B99" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C99" s="7" t="inlineStr">
         <is>
-          <t>Jacob Gulbrandsen-Rognstad</t>
+          <t>Magnus Tuv Myhre</t>
         </is>
       </c>
       <c r="D99" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E99" s="15" t="n">
-        <v>1.5</v>
+        <v>2000</v>
+      </c>
+      <c r="E99" s="17" t="inlineStr">
+        <is>
+          <t>28,04,69</t>
+        </is>
       </c>
       <c r="F99" s="7" t="n">
-        <v>353</v>
+        <v>1016</v>
       </c>
       <c r="G99" s="7" t="inlineStr">
         <is>
-          <t>Brandbu</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H99" s="16" t="n">
-        <v>1.06</v>
+        <v>13.04</v>
       </c>
       <c r="J99" s="5" t="n"/>
       <c r="L99" s="14" t="inlineStr">
@@ -65896,22 +65978,22 @@
     <row r="100" ht="13" customHeight="1">
       <c r="B100" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C100" s="7" t="inlineStr">
         <is>
-          <t>Gudbrand Wirstad Dynna</t>
+          <t>Jacob Gulbrandsen-Rognstad</t>
         </is>
       </c>
       <c r="D100" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E100" s="15" t="n">
-        <v>2.68</v>
+        <v>1.5</v>
       </c>
       <c r="F100" s="7" t="n">
-        <v>491</v>
+        <v>353</v>
       </c>
       <c r="G100" s="7" t="inlineStr">
         <is>
@@ -65919,7 +66001,7 @@
         </is>
       </c>
       <c r="H100" s="16" t="n">
-        <v>20.02</v>
+        <v>1.06</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="14" t="inlineStr">
@@ -65954,7 +66036,7 @@
     <row r="101" ht="13" customHeight="1">
       <c r="B101" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C101" s="7" t="inlineStr">
@@ -65966,10 +66048,10 @@
         <v>2000</v>
       </c>
       <c r="E101" s="15" t="n">
-        <v>7.39</v>
+        <v>2.68</v>
       </c>
       <c r="F101" s="7" t="n">
-        <v>242</v>
+        <v>491</v>
       </c>
       <c r="G101" s="7" t="inlineStr">
         <is>
@@ -66010,13 +66092,33 @@
       <c r="T101" s="5" t="n"/>
     </row>
     <row r="102" ht="13" customHeight="1">
-      <c r="B102" s="14" t="n"/>
-      <c r="C102" s="7" t="n"/>
-      <c r="D102" s="7" t="n"/>
-      <c r="E102" s="7" t="n"/>
-      <c r="F102" s="7" t="n"/>
-      <c r="G102" s="7" t="n"/>
-      <c r="H102" s="18" t="n"/>
+      <c r="B102" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="C102" s="7" t="inlineStr">
+        <is>
+          <t>Gudbrand Wirstad Dynna</t>
+        </is>
+      </c>
+      <c r="D102" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="15" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F102" s="7" t="n">
+        <v>242</v>
+      </c>
+      <c r="G102" s="7" t="inlineStr">
+        <is>
+          <t>Brandbu</t>
+        </is>
+      </c>
+      <c r="H102" s="16" t="n">
+        <v>20.02</v>
+      </c>
       <c r="J102" s="5" t="n"/>
       <c r="L102" s="14" t="n"/>
       <c r="M102" s="7" t="n"/>
@@ -66088,7 +66190,7 @@
         </is>
       </c>
       <c r="C106" s="21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" s="20" t="inlineStr">
         <is>
@@ -66096,7 +66198,7 @@
         </is>
       </c>
       <c r="F106" s="21" t="n">
-        <v>5917</v>
+        <v>6084</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="20" t="inlineStr">
@@ -66401,19 +66503,19 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>William Tømterud</t>
+          <t>Peder Robøle-Sørensen</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E114" s="17" t="inlineStr">
         <is>
-          <t>4,59,57</t>
+          <t>4,54,83</t>
         </is>
       </c>
       <c r="F114" s="7" t="n">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
@@ -66421,7 +66523,7 @@
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>1.06</v>
+        <v>17.08</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -66456,24 +66558,24 @@
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Oscar Julsvik Kristoffersen</t>
+          <t>William Tømterud</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E115" s="17" t="inlineStr">
         <is>
-          <t>2,32,23</t>
+          <t>4,59,57</t>
         </is>
       </c>
       <c r="F115" s="7" t="n">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
@@ -66600,7 +66702,7 @@
         </is>
       </c>
       <c r="F120" s="21" t="n">
-        <v>2183</v>
+        <v>2288</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="20" t="inlineStr">
@@ -66632,7 +66734,7 @@
         </is>
       </c>
       <c r="C122" s="21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E122" s="20" t="inlineStr">
         <is>
@@ -66640,7 +66742,7 @@
         </is>
       </c>
       <c r="F122" s="21" t="n">
-        <v>8100</v>
+        <v>8372</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="20" t="inlineStr">
@@ -66672,7 +66774,7 @@
         </is>
       </c>
       <c r="C124" s="21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="20" t="inlineStr">
@@ -66727,7 +66829,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -68813,7 +68915,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="L2" s="6" t="inlineStr">
@@ -71800,7 +71902,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -72181,7 +72283,7 @@
     <row r="13" ht="13" customHeight="1">
       <c r="B13" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
@@ -72194,11 +72296,11 @@
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>5,51,6</t>
+          <t>12,36,0</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
@@ -72206,7 +72308,7 @@
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>8.06</v>
+        <v>17.08</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -72579,7 +72681,7 @@
         </is>
       </c>
       <c r="F22" s="21" t="n">
-        <v>6141</v>
+        <v>6161</v>
       </c>
       <c r="J22" s="5" t="n"/>
       <c r="L22" s="20" t="inlineStr">
@@ -72785,30 +72887,30 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Even Elias Grannes Pedersen</t>
+          <t>Jørgen Homstad</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>22.43</v>
+        <v>11.1</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>14.08</v>
+        <v>18.08</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -72843,30 +72945,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Ørjan Millerjord Sagmo</t>
+          <t>Even Elias Grannes Pedersen</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>54.86</v>
+        <v>22.43</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>572</v>
+        <v>811</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>29.07</v>
+        <v>14.08</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -72901,30 +73003,30 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Didrik Bråten</t>
+          <t>Ørjan Millerjord Sagmo</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>5.16</v>
+        <v>54.86</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>410</v>
+        <v>572</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>6.03</v>
+        <v>29.07</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -72959,30 +73061,30 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Martin Lilleberre Aunet</t>
+          <t>Didrik Bråten</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O31" s="15" t="n">
-        <v>8.41</v>
+        <v>5.16</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>6.08</v>
+        <v>6.03</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -73017,30 +73119,30 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Didrik Bråten</t>
+          <t>Martin Lilleberre Aunet</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>27.42</v>
+        <v>8.41</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>19.02</v>
+        <v>6.08</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -73210,7 +73312,7 @@
         </is>
       </c>
       <c r="P36" s="21" t="n">
-        <v>3945</v>
+        <v>4387</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -73233,7 +73335,7 @@
         </is>
       </c>
       <c r="F38" s="21" t="n">
-        <v>9187</v>
+        <v>9207</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="20" t="inlineStr">
@@ -73250,7 +73352,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>8641</v>
+        <v>9083</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -73274,7 +73376,7 @@
         </is>
       </c>
       <c r="M40" s="21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T40" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 menn 3. div.xlsx
+++ b/output/Lagserien 2022 menn 3. div.xlsx
@@ -15,15 +15,13 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Innlandet" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Møre og Romsdal" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nord-Trøndelag" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nordland" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Oslo" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rogaland" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sogn og Fjordane" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sør-Trøndelag" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Telemark" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Troms" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vestfold" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Østfold" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Oslo" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rogaland" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sogn og Fjordane" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sør-Trøndelag" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Troms" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vestfold" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Østfold" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -777,98 +775,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="1" max="1"/>
-    <col width="19.36" customWidth="1" style="1" min="2" max="2"/>
-    <col width="38.82" customWidth="1" style="1" min="3" max="3"/>
-    <col width="7.73" customWidth="1" style="1" min="4" max="4"/>
-    <col width="10.73" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9.18" customWidth="1" style="1" min="6" max="6"/>
-    <col width="21.27" customWidth="1" style="1" min="7" max="7"/>
-    <col width="6.36" customWidth="1" style="1" min="8" max="8"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="9" max="9"/>
-    <col width="4.73" customWidth="1" style="1" min="10" max="10"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.36" customWidth="1" style="1" min="12" max="12"/>
-    <col width="38.82" customWidth="1" style="1" min="13" max="13"/>
-    <col width="7.73" customWidth="1" style="1" min="14" max="14"/>
-    <col width="10.73" customWidth="1" style="1" min="15" max="15"/>
-    <col width="9.18" customWidth="1" style="1" min="16" max="16"/>
-    <col width="21.27" customWidth="1" style="1" min="17" max="17"/>
-    <col width="6.36" customWidth="1" style="1" min="18" max="18"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="19" max="19"/>
-    <col width="4.73" customWidth="1" style="1" min="20" max="20"/>
-    <col width="13" customWidth="1" style="1" min="21" max="21"/>
-    <col width="13" customWidth="1" style="1" min="22" max="22"/>
-    <col width="13" customWidth="1" style="1" min="23" max="23"/>
-    <col width="13" customWidth="1" style="1" min="24" max="24"/>
-    <col width="13" customWidth="1" style="1" min="25" max="25"/>
-    <col width="13" customWidth="1" style="1" min="26" max="26"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="1" max="1"/>
-    <col width="19.36" customWidth="1" style="1" min="2" max="2"/>
-    <col width="38.82" customWidth="1" style="1" min="3" max="3"/>
-    <col width="7.73" customWidth="1" style="1" min="4" max="4"/>
-    <col width="10.73" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9.18" customWidth="1" style="1" min="6" max="6"/>
-    <col width="21.27" customWidth="1" style="1" min="7" max="7"/>
-    <col width="6.36" customWidth="1" style="1" min="8" max="8"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="9" max="9"/>
-    <col width="4.73" customWidth="1" style="1" min="10" max="10"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.36" customWidth="1" style="1" min="12" max="12"/>
-    <col width="38.82" customWidth="1" style="1" min="13" max="13"/>
-    <col width="7.73" customWidth="1" style="1" min="14" max="14"/>
-    <col width="10.73" customWidth="1" style="1" min="15" max="15"/>
-    <col width="9.18" customWidth="1" style="1" min="16" max="16"/>
-    <col width="21.27" customWidth="1" style="1" min="17" max="17"/>
-    <col width="6.36" customWidth="1" style="1" min="18" max="18"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="19" max="19"/>
-    <col width="4.73" customWidth="1" style="1" min="20" max="20"/>
-    <col width="13" customWidth="1" style="1" min="21" max="21"/>
-    <col width="13" customWidth="1" style="1" min="22" max="22"/>
-    <col width="13" customWidth="1" style="1" min="23" max="23"/>
-    <col width="13" customWidth="1" style="1" min="24" max="24"/>
-    <col width="13" customWidth="1" style="1" min="25" max="25"/>
-    <col width="13" customWidth="1" style="1" min="26" max="26"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
